--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fnibs-my.sharepoint.com/personal/iga_magda_ibs_org_pl/Documents/IBS/projekty/Benefit systems/BENEFIT PROJEKT/analiza/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB723CA-4B02-4C2C-9190-0794BC486919}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8973CCF8-4381-4C8C-85B8-4EEF50F1537D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="143">
   <si>
     <t>M</t>
   </si>
@@ -471,6 +471,9 @@
   <si>
     <t>heart_disease</t>
   </si>
+  <si>
+    <t>this is our new mortility</t>
+  </si>
 </sst>
 </file>
 
@@ -485,12 +488,20 @@
     <numFmt numFmtId="168" formatCode="#,##0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,25 +673,25 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -690,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,13 +716,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -720,9 +731,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D789C2-E50C-427B-BE0F-0552EE19EF4B}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D29"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1255,101 +1267,101 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D5">
-        <v>0.82000000000000006</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
         <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="C6">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="E6">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>6</v>
       </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
+      <c r="A7" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>0.71</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.71</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1395,20 +1407,20 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="4" t="s">
-        <v>69</v>
+      <c r="A8" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0.67999999999999994</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D8">
         <v>0.67999999999999994</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1451,20 +1463,20 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="3" t="s">
-        <v>79</v>
+      <c r="A9" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="B9">
-        <v>0.67999999999999994</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C9">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.67999999999999994</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="E9">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1507,17 +1519,17 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="30" t="s">
-        <v>140</v>
+      <c r="A10" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>0.98699999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.98699999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1564,16 +1576,16 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>0.995</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.995</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1619,17 +1631,17 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="29" t="s">
-        <v>136</v>
+      <c r="A12" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="B12">
-        <v>1.0475000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D12">
-        <v>1.0475000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1675,20 +1687,20 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="32" t="s">
-        <v>141</v>
+      <c r="A13" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B13">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C13">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="D13">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1732,75 +1744,78 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>0.77</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="C14">
+        <v>0.98</v>
+      </c>
+      <c r="D14">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="E14">
+        <v>0.98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15">
+        <v>0.89</v>
+      </c>
+      <c r="C15">
         <v>0.94</v>
       </c>
-      <c r="D14">
-        <v>0.77</v>
-      </c>
-      <c r="E14">
+      <c r="D15">
+        <v>0.89</v>
+      </c>
+      <c r="E15">
         <v>0.94</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="C15">
-        <v>0.98</v>
-      </c>
-      <c r="D15">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="E15">
-        <v>0.98</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1847,16 +1862,16 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="E16">
         <v>0.94</v>
@@ -1906,7 +1921,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1915,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="E17">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1964,20 +1979,20 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="29" t="s">
-        <v>139</v>
+      <c r="A18" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="E18">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -2024,16 +2039,16 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2081,73 +2096,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20">
-        <v>0.81</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0.81</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>15</v>
-      </c>
-      <c r="R20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" t="s">
-        <v>17</v>
-      </c>
+    <row r="22" spans="1:19">
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:19">
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:19">
+      <c r="D24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="D25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:19">
@@ -2157,19 +2116,19 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="F28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="F29" s="4"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="F30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="F31" s="4"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="F32" s="29"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="3"/>
@@ -2195,11 +2154,8 @@
     <row r="40" spans="6:6">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2749,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F99EC-9B05-4CA0-9FD5-A05AE30DCAD7}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:S20"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2768,7 +2724,7 @@
     <col min="15" max="19" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2827,7 +2783,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -2856,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -2912,7 +2868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -2971,7 +2927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -3027,7 +2983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -3056,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
@@ -3112,7 +3068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
@@ -3168,7 +3124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
@@ -3223,8 +3179,11 @@
       <c r="R9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="30" t="s">
         <v>140</v>
       </c>
@@ -3280,7 +3239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="29" t="s">
         <v>135</v>
       </c>
@@ -3336,7 +3295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="29" t="s">
         <v>136</v>
       </c>
@@ -3392,7 +3351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
@@ -3448,7 +3407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -3504,7 +3463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
@@ -3563,7 +3522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="29" t="s">
         <v>137</v>
       </c>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fnibs-my.sharepoint.com/personal/iga_magda_ibs_org_pl/Documents/IBS/projekty/Benefit systems/BENEFIT PROJEKT/analiza/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8973CCF8-4381-4C8C-85B8-4EEF50F1537D}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51EB5453-BC64-41BB-AEDA-2634AF196B95}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="33855" yWindow="2790" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="143">
   <si>
     <t>M</t>
   </si>
@@ -488,12 +488,20 @@
     <numFmt numFmtId="168" formatCode="#,##0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,25 +681,25 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -701,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,13 +724,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -731,9 +739,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1043,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D789C2-E50C-427B-BE0F-0552EE19EF4B}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1208,104 +1217,101 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
         <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="E5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>6</v>
       </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="3" t="s">
-        <v>68</v>
+      <c r="A6" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>0.71</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.71</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1351,20 +1357,20 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="4" t="s">
-        <v>69</v>
+      <c r="A7" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="B7">
         <v>0.67999999999999994</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D7">
         <v>0.67999999999999994</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1407,20 +1413,20 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="33" t="s">
-        <v>61</v>
+      <c r="A8" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="B8">
-        <v>0.67999999999999994</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.67999999999999994</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="E8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1463,17 +1469,17 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="30" t="s">
-        <v>140</v>
+      <c r="A9" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="B9">
-        <v>0.98699999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.98699999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1520,16 +1526,16 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.995</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1575,17 +1581,17 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="29" t="s">
-        <v>136</v>
+      <c r="A11" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="B11">
-        <v>1.0475000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D11">
-        <v>1.0475000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1631,20 +1637,20 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="32" t="s">
-        <v>141</v>
+      <c r="A12" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B12">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C12">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="D12">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1687,76 +1693,79 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="3" t="s">
-        <v>73</v>
+      <c r="A13" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>0.77</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="C13">
+        <v>0.98</v>
+      </c>
+      <c r="D13">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="E13">
+        <v>0.98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14">
+        <v>0.89</v>
+      </c>
+      <c r="C14">
         <v>0.94</v>
       </c>
-      <c r="D13">
-        <v>0.77</v>
-      </c>
-      <c r="E13">
+      <c r="D14">
+        <v>0.89</v>
+      </c>
+      <c r="E14">
         <v>0.94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="C14">
-        <v>0.98</v>
-      </c>
-      <c r="D14">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="E14">
-        <v>0.98</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1803,16 +1812,16 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="E15">
         <v>0.94</v>
@@ -1862,7 +1871,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1871,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="E16">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1920,20 +1929,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="29" t="s">
-        <v>139</v>
+      <c r="A17" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="E17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1980,16 +1989,16 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2037,73 +2046,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19">
-        <v>0.81</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0.81</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" t="s">
-        <v>17</v>
-      </c>
+    <row r="21" spans="1:19">
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:19">
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:19">
+      <c r="D23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="D24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:19">
@@ -2113,19 +2066,19 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="F27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="F29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="F30" s="4"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="F31" s="29"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:19">
       <c r="F32" s="3"/>
@@ -2151,11 +2104,8 @@
     <row r="39" spans="6:6">
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8088,10 +8038,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0661E1-D292-4694-8368-9DC31B72B949}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8107,7 +8057,7 @@
     <col min="23" max="23" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -8180,26 +8130,23 @@
       <c r="X1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>80</v>
+      <c r="Y1" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="Z1" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" s="29" t="s">
         <v>139</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="AC1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -8232,7 +8179,7 @@
         <v>36907.63512900471</v>
       </c>
       <c r="K2">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L2" s="8">
         <v>6.6590451405090789E-4</v>
@@ -8288,11 +8235,8 @@
       <c r="AC2">
         <v>0.5</v>
       </c>
-      <c r="AD2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -8325,7 +8269,7 @@
         <v>79593.141875704561</v>
       </c>
       <c r="K3">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="8">
         <v>7.795456899657438E-4</v>
@@ -8381,11 +8325,8 @@
       <c r="AC3">
         <v>0.5</v>
       </c>
-      <c r="AD3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>2024</v>
       </c>
@@ -8418,7 +8359,7 @@
         <v>645107.29227011139</v>
       </c>
       <c r="K4">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="8">
         <v>4.8755285649804136E-4</v>
@@ -8474,11 +8415,8 @@
       <c r="AC4">
         <v>0.5</v>
       </c>
-      <c r="AD4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -8511,7 +8449,7 @@
         <v>811462.65871541773</v>
       </c>
       <c r="K5">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="8">
         <v>5.5708469398041416E-4</v>
@@ -8567,11 +8505,8 @@
       <c r="AC5">
         <v>0.5</v>
       </c>
-      <c r="AD5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -8604,7 +8539,7 @@
         <v>1233853.2967714358</v>
       </c>
       <c r="K6">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="8">
         <v>6.9245836493792012E-4</v>
@@ -8660,11 +8595,8 @@
       <c r="AC6">
         <v>0.5</v>
       </c>
-      <c r="AD6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -8697,7 +8629,7 @@
         <v>1510549.0589324937</v>
       </c>
       <c r="K7">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="8">
         <v>6.8943336134452693E-4</v>
@@ -8753,11 +8685,8 @@
       <c r="AC7">
         <v>0.5</v>
       </c>
-      <c r="AD7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -8790,7 +8719,7 @@
         <v>1258328.8758998925</v>
       </c>
       <c r="K8">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="8">
         <v>1.2709945149822488E-3</v>
@@ -8846,11 +8775,8 @@
       <c r="AC8">
         <v>0.5</v>
       </c>
-      <c r="AD8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -8883,7 +8809,7 @@
         <v>1470802.6095991598</v>
       </c>
       <c r="K9">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="8">
         <v>8.0549759979930968E-4</v>
@@ -8939,11 +8865,8 @@
       <c r="AC9">
         <v>0.5</v>
       </c>
-      <c r="AD9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -8976,7 +8899,7 @@
         <v>1159903.8998163971</v>
       </c>
       <c r="K10">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="8">
         <v>2.1328539063460994E-3</v>
@@ -9032,11 +8955,8 @@
       <c r="AC10">
         <v>0.5</v>
       </c>
-      <c r="AD10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -9069,7 +8989,7 @@
         <v>1354128.5545094833</v>
       </c>
       <c r="K11">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="8">
         <v>1.1551921439263424E-3</v>
@@ -9125,11 +9045,8 @@
       <c r="AC11">
         <v>0.5</v>
       </c>
-      <c r="AD11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -9162,7 +9079,7 @@
         <v>1013882.8320252453</v>
       </c>
       <c r="K12">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="8">
         <v>3.4850147079055205E-3</v>
@@ -9218,11 +9135,8 @@
       <c r="AC12">
         <v>0.5</v>
       </c>
-      <c r="AD12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -9255,7 +9169,7 @@
         <v>1113804.3135924959</v>
       </c>
       <c r="K13">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="8">
         <v>1.7244978484995954E-3</v>
@@ -9311,11 +9225,8 @@
       <c r="AC13">
         <v>0.5</v>
       </c>
-      <c r="AD13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -9348,7 +9259,7 @@
         <v>1032652.8024336348</v>
       </c>
       <c r="K14">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="8">
         <v>5.5475828776252456E-3</v>
@@ -9404,11 +9315,8 @@
       <c r="AC14">
         <v>0.5</v>
       </c>
-      <c r="AD14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>2024</v>
       </c>
@@ -9441,7 +9349,7 @@
         <v>1079376.613619067</v>
       </c>
       <c r="K15">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="8">
         <v>3.48168233404067E-3</v>
@@ -9497,11 +9405,8 @@
       <c r="AC15">
         <v>0.5</v>
       </c>
-      <c r="AD15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -9534,7 +9439,7 @@
         <v>1177941.0350714324</v>
       </c>
       <c r="K16">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="8">
         <v>8.4600944998669547E-3</v>
@@ -9590,11 +9495,8 @@
       <c r="AC16">
         <v>0.5</v>
       </c>
-      <c r="AD16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>2024</v>
       </c>
@@ -9627,7 +9529,7 @@
         <v>1180256.8284971607</v>
       </c>
       <c r="K17">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="8">
         <v>7.0162087736207468E-3</v>
@@ -9683,11 +9585,8 @@
       <c r="AC17">
         <v>0.5</v>
       </c>
-      <c r="AD17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>2024</v>
       </c>
@@ -9720,7 +9619,7 @@
         <v>1102501.7832445726</v>
       </c>
       <c r="K18">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="8">
         <v>1.2033058566544241E-2</v>
@@ -9776,11 +9675,8 @@
       <c r="AC18">
         <v>0.5</v>
       </c>
-      <c r="AD18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>2024</v>
       </c>
@@ -9813,7 +9709,7 @@
         <v>1112110.9873995516</v>
       </c>
       <c r="K19">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="8">
         <v>1.2730202912052846E-2</v>
@@ -9869,11 +9765,8 @@
       <c r="AC19">
         <v>0.5</v>
       </c>
-      <c r="AD19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>2024</v>
       </c>
@@ -9906,7 +9799,7 @@
         <v>333797.77109336393</v>
       </c>
       <c r="K20">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="8">
         <v>1.5750538110069101E-2</v>
@@ -9962,11 +9855,8 @@
       <c r="AC20">
         <v>0.5</v>
       </c>
-      <c r="AD20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>2024</v>
       </c>
@@ -9999,7 +9889,7 @@
         <v>717108.87081488187</v>
       </c>
       <c r="K21">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L21" s="8">
         <v>2.1413566644127968E-2</v>
@@ -10055,11 +9945,8 @@
       <c r="AC21">
         <v>0.5</v>
       </c>
-      <c r="AD21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>2024</v>
       </c>
@@ -10092,7 +9979,7 @@
         <v>67000.476218752578</v>
       </c>
       <c r="K22">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="8">
         <v>1.9690477015046781E-2</v>
@@ -10148,11 +10035,8 @@
       <c r="AC22">
         <v>0.5</v>
       </c>
-      <c r="AD22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>2024</v>
       </c>
@@ -10185,7 +10069,7 @@
         <v>109345.63208843226</v>
       </c>
       <c r="K23">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="8">
         <v>3.0976666903370642E-2</v>
@@ -10241,11 +10125,8 @@
       <c r="AC23">
         <v>0.5</v>
       </c>
-      <c r="AD23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -10278,7 +10159,7 @@
         <v>25595.38666403525</v>
       </c>
       <c r="K24">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L24" s="8">
         <v>1.8084977609987618E-2</v>
@@ -10334,11 +10215,8 @@
       <c r="AC24">
         <v>0.5</v>
       </c>
-      <c r="AD24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>2024</v>
       </c>
@@ -10371,7 +10249,7 @@
         <v>38913.50369848375</v>
       </c>
       <c r="K25">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L25" s="8">
         <v>3.5583561451403511E-2</v>
@@ -10427,11 +10305,8 @@
       <c r="AC25">
         <v>0.5</v>
       </c>
-      <c r="AD25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -10464,7 +10339,7 @@
         <v>10083.005736825682</v>
       </c>
       <c r="K26">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L26" s="8">
         <v>1.7682773554497544E-2</v>
@@ -10520,11 +10395,8 @@
       <c r="AC26">
         <v>0.5</v>
       </c>
-      <c r="AD26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>2024</v>
       </c>
@@ -10557,7 +10429,7 @@
         <v>16075.829557563802</v>
       </c>
       <c r="K27">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L27" s="8">
         <v>3.8642153014734504E-2</v>
@@ -10613,11 +10485,8 @@
       <c r="AC27">
         <v>0.5</v>
       </c>
-      <c r="AD27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>2024</v>
       </c>
@@ -10650,7 +10519,7 @@
         <v>4507.1981994973657</v>
       </c>
       <c r="K28">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L28" s="9">
         <v>0.16558913736841294</v>
@@ -10706,11 +10575,8 @@
       <c r="AC28">
         <v>0.5</v>
       </c>
-      <c r="AD28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>2024</v>
       </c>
@@ -10743,7 +10609,7 @@
         <v>11090.538126124047</v>
       </c>
       <c r="K29">
-        <v>100000</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="9">
         <v>0.2059349065789314</v>
@@ -10797,9 +10663,6 @@
         <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
-      </c>
-      <c r="AD29">
         <v>0.5</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fnibs-my.sharepoint.com/personal/iga_magda_ibs_org_pl/Documents/IBS/projekty/Benefit systems/BENEFIT PROJEKT/analiza/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51EB5453-BC64-41BB-AEDA-2634AF196B95}"/>
+  <xr:revisionPtr revIDLastSave="523" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D45CCF-A5F0-40B6-B8E7-D54ABB972B84}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33855" yWindow="2790" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15720" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="4" r:id="rId1"/>
-    <sheet name="parameters_comments" sheetId="14" r:id="rId2"/>
-    <sheet name="parameters_original" sheetId="5" r:id="rId3"/>
-    <sheet name="data_2012" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId5"/>
-    <sheet name="data_2024_comments" sheetId="13" r:id="rId6"/>
-    <sheet name="data_2024" sheetId="6" r:id="rId7"/>
+    <sheet name="data_2024" sheetId="6" r:id="rId2"/>
+    <sheet name="data_2012" sheetId="2" r:id="rId3"/>
+    <sheet name="parameters_comments" sheetId="14" r:id="rId4"/>
+    <sheet name="parameters_original" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId6"/>
+    <sheet name="data_2024_comments" sheetId="13" r:id="rId7"/>
     <sheet name="Sheet6" sheetId="12" r:id="rId8"/>
     <sheet name="expected lifetime" sheetId="10" r:id="rId9"/>
     <sheet name="hypertension_data" sheetId="8" r:id="rId10"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="158">
   <si>
     <t>M</t>
   </si>
@@ -473,6 +473,51 @@
   </si>
   <si>
     <t>this is our new mortility</t>
+  </si>
+  <si>
+    <t>Employment Rate</t>
+  </si>
+  <si>
+    <t>Absence Days</t>
+  </si>
+  <si>
+    <t>Cancer Prevalence</t>
+  </si>
+  <si>
+    <t>Diabetes Prevalence</t>
+  </si>
+  <si>
+    <t>Hypertension Prevalence</t>
+  </si>
+  <si>
+    <t>Mortality Rate</t>
+  </si>
+  <si>
+    <t>Heart Disease Prevalence</t>
+  </si>
+  <si>
+    <t>Stroke Prevalence</t>
+  </si>
+  <si>
+    <t>Colorectal Cancer Prevalence</t>
+  </si>
+  <si>
+    <t>Breast Cancer Prevalence</t>
+  </si>
+  <si>
+    <t>Endometrial Cancer Prevalence</t>
+  </si>
+  <si>
+    <t>Depression Prevalence</t>
+  </si>
+  <si>
+    <t>Anxiety Prevalence</t>
+  </si>
+  <si>
+    <t>Public Health Costs</t>
+  </si>
+  <si>
+    <t>friendly_name</t>
   </si>
 </sst>
 </file>
@@ -494,14 +539,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,6 +644,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -679,27 +724,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -709,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,13 +770,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -739,17 +785,18 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Akcent 1 2" xfId="2" xr:uid="{43BF0BD2-EBEA-4273-9079-C45FAEC828DD}"/>
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{D7EAA087-453D-4435-B2DF-92CB44FCAF8F}"/>
     <cellStyle name="Normalny 6" xfId="1" xr:uid="{34EE92F3-FF80-4DDE-A49E-D208E5FDC316}"/>
@@ -1052,1060 +1099,967 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D789C2-E50C-427B-BE0F-0552EE19EF4B}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2">
         <v>1.038</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1.052</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3">
         <v>0.79</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0.79</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
       </c>
       <c r="C4">
-        <v>1.1000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4" t="s">
+        <v>0.71</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>0.71</v>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="D5">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>14</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>16</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:20">
+      <c r="A6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6">
         <v>0.67999999999999994</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
+        <v>0.96</v>
+      </c>
+      <c r="E6">
         <v>0.67999999999999994</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>0.96</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>10</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>14</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>16</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>0.67999999999999994</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
       </c>
       <c r="C7">
-        <v>0.96</v>
+        <v>0.995</v>
       </c>
       <c r="D7">
-        <v>0.67999999999999994</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.96</v>
-      </c>
-      <c r="F7" t="s">
+        <v>0.995</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>14</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>16</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8">
-        <v>0.98699999999999999</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D8">
-        <v>0.98699999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>10</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>14</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>16</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
-        <v>0.995</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="D9">
-        <v>0.995</v>
+        <v>0.94</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+        <v>0.77</v>
+      </c>
+      <c r="F9">
+        <v>0.94</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>9</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>10</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>14</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>16</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10">
-        <v>1.0475000000000001</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D10">
-        <v>1.0475000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="F10">
+        <v>0.98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>9</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>10</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>14</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>16</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:20">
+      <c r="A11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11">
+        <v>0.89</v>
+      </c>
+      <c r="D11">
+        <v>0.94</v>
+      </c>
+      <c r="E11">
+        <v>0.89</v>
+      </c>
+      <c r="F11">
+        <v>0.94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>0.79</v>
       </c>
-      <c r="C11">
-        <v>0.98</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F12">
+        <v>0.94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I12" t="s">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K12" t="s">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M12" t="s">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N12" t="s">
         <v>8</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O12" t="s">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P12" t="s">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q12" t="s">
         <v>14</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R12" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S12" t="s">
         <v>16</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12">
-        <v>0.77</v>
-      </c>
-      <c r="C12">
-        <v>0.94</v>
-      </c>
-      <c r="D12">
-        <v>0.77</v>
-      </c>
-      <c r="E12">
-        <v>0.94</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="13" spans="1:20">
+      <c r="A13" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.86</v>
+      </c>
+      <c r="F13">
+        <v>0.92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K13" t="s">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L13" t="s">
         <v>6</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N13" t="s">
         <v>8</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O13" t="s">
         <v>9</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P13" t="s">
         <v>10</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q13" t="s">
         <v>14</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R13" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S13" t="s">
         <v>16</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="C13">
-        <v>0.98</v>
-      </c>
-      <c r="D13">
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="E13">
-        <v>0.98</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>0.78</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.78</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I14" t="s">
         <v>3</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J14" t="s">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K14" t="s">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L14" t="s">
         <v>6</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M14" t="s">
         <v>7</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O14" t="s">
         <v>9</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P14" t="s">
         <v>10</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q14" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R14" t="s">
         <v>15</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S14" t="s">
         <v>16</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14">
-        <v>0.89</v>
-      </c>
-      <c r="C14">
-        <v>0.94</v>
-      </c>
-      <c r="D14">
-        <v>0.89</v>
-      </c>
-      <c r="E14">
-        <v>0.94</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>0.81</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.81</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J15" t="s">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K15" t="s">
         <v>5</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L15" t="s">
         <v>6</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M15" t="s">
         <v>7</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N15" t="s">
         <v>8</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O15" t="s">
         <v>9</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P15" t="s">
         <v>10</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q15" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R15" t="s">
         <v>15</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S15" t="s">
         <v>16</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.79</v>
-      </c>
-      <c r="E15">
-        <v>0.94</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.86</v>
-      </c>
-      <c r="E16">
-        <v>0.92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" t="s">
-        <v>16</v>
-      </c>
-      <c r="S16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17">
-        <v>0.78</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.78</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" t="s">
-        <v>16</v>
-      </c>
-      <c r="S17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18">
-        <v>0.81</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.81</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="3"/>
+    <row r="18" spans="5:12">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="5:12">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="5:12">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="G25" s="3"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="G26" s="4"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="5:12">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2116,7 +2070,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2654,11 +2608,3256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0661E1-D292-4694-8368-9DC31B72B949}">
+  <dimension ref="A1:W41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.39999997615814209</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.36363637447357178</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.23636363446712494</v>
+      </c>
+      <c r="G2">
+        <v>1131077.3323752533</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.5357E-4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.2630514353513718E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <f>I2*G2</f>
+        <v>36907.63512900471</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>6.6590451405090789E-4</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.0593115075607784E-3</v>
+      </c>
+      <c r="N2">
+        <v>2.280014250089063E-2</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.42111873638157249</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2491.9610569266101</v>
+      </c>
+      <c r="Q2">
+        <v>79</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>0.5</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.45714282989501953</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.24285714328289032</v>
+      </c>
+      <c r="G3">
+        <v>1179683.0167621898</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.5029000000000005E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6.7469939589500427E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J29" si="0">I3*G3</f>
+        <v>79593.141875704561</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>7.795456899657438E-4</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.0091792519233422E-3</v>
+      </c>
+      <c r="N3">
+        <v>3.8905194184697289E-2</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.29886901300801583</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2394.18242102875</v>
+      </c>
+      <c r="Q3">
+        <v>79</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.43243241310119629</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25225228071212769</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.31531530618667603</v>
+      </c>
+      <c r="G4">
+        <v>1363470.0242741166</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.7783000000000001E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.47313639521598816</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>645107.29227011139</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="8">
+        <v>4.8755285649804136E-4</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5.0246272621734533E-4</v>
+      </c>
+      <c r="N4">
+        <v>2.280014250089063E-2</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.24796760099241055</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1959.11262274878</v>
+      </c>
+      <c r="Q4">
+        <v>79</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5390625</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2421875</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="G5">
+        <v>1414775.7521785111</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.2638999999999998E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.57356274127960205</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>811462.65871541773</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="8">
+        <v>5.5708469398041416E-4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4.2014366226794664E-4</v>
+      </c>
+      <c r="N5">
+        <v>3.8905194184697289E-2</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.10574141245018609</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1846.7459201179399</v>
+      </c>
+      <c r="Q5">
+        <v>79</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.56842106580734253</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.16842103004455566</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.26315790414810181</v>
+      </c>
+      <c r="G6">
+        <v>1614627.5604918366</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.2551999999999999E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.76417207717895508</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>1233853.2967714358</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>6.9245836493792012E-4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4.8237247028737329E-4</v>
+      </c>
+      <c r="N6">
+        <v>3.8325258514715452E-2</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.34802791677589084</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2481.9486896696899</v>
+      </c>
+      <c r="Q6">
+        <v>79</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>0.5</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.39639639854431152</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.26126125454902649</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.34234234690666199</v>
+      </c>
+      <c r="G7">
+        <v>1662231.4473845728</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.0756299999999999E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.90874773263931274</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1510549.0589324937</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>6.8943336134452693E-4</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5.249304958852008E-4</v>
+      </c>
+      <c r="N7">
+        <v>6.4750971264568968E-2</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.11026990975904027</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2084.9011072537901</v>
+      </c>
+      <c r="Q7">
+        <v>79</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.60283684730529785</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.24113474786281586</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1560283750295639</v>
+      </c>
+      <c r="G8">
+        <v>1541068.444409075</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.3746000000000003E-4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.81653016805648804</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>1258328.8758998925</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.2709945149822488E-3</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4.2794210457941517E-4</v>
+      </c>
+      <c r="N8">
+        <v>3.8325258514715452E-2</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.31904849434255311</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2608.3303700373899</v>
+      </c>
+      <c r="Q8">
+        <v>79</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.54330706596374512</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.27559053897857666</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.18110236525535583</v>
+      </c>
+      <c r="G9">
+        <v>1587536.2617654814</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.4144699999999999E-3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.92646867036819458</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>1470802.6095991598</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>8.0549759979930968E-4</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5.5093289847718552E-4</v>
+      </c>
+      <c r="N9">
+        <v>6.4750971264568968E-2</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0.12067614421852113</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2273.6089610384402</v>
+      </c>
+      <c r="Q9">
+        <v>79</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.6447368860244751</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.22368419170379639</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1315789520740509</v>
+      </c>
+      <c r="G10">
+        <v>1422315.2730428765</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6.8263999999999998E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.81550407409667969</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>1159903.8998163971</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="8">
+        <v>2.1328539063460994E-3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4.4876473839394748E-4</v>
+      </c>
+      <c r="N10">
+        <v>9.7414272171553726E-2</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0.22750209091668694</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2604.3800451805</v>
+      </c>
+      <c r="Q10">
+        <v>79</v>
+      </c>
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.65957450866699219</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.14893615245819092</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.19148936867713928</v>
+      </c>
+      <c r="G11">
+        <v>1461507.4156286435</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.10283E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.9265286922454834</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>1354128.5545094833</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1.1551921439263424E-3</v>
+      </c>
+      <c r="M11" s="7">
+        <v>8.2746843690983951E-4</v>
+      </c>
+      <c r="N11">
+        <v>0.13663125559964162</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.13937097607464466</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2494.96704754336</v>
+      </c>
+      <c r="Q11">
+        <v>79</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.59574466943740845</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.24113476276397705</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1631205677986145</v>
+      </c>
+      <c r="G12">
+        <v>1188521.7266578516</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9.6069999999999988E-4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.85306209325790405</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>1013882.8320252453</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3.4850147079055205E-3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5.5796606466174126E-4</v>
+      </c>
+      <c r="N12">
+        <v>9.7414272171553726E-2</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0.19070866705698108</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2861.6405970342398</v>
+      </c>
+      <c r="Q12">
+        <v>79</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+      <c r="W12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.60431653261184692</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.17985613644123077</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2158273309469223</v>
+      </c>
+      <c r="G13">
+        <v>1211018.4583885893</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.90252E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.91972529888153076</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1113804.3135924959</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.7244978484995954E-3</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.2517434079200029E-3</v>
+      </c>
+      <c r="N13">
+        <v>0.13663125559964162</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0.16713251435567145</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2865.9741042668302</v>
+      </c>
+      <c r="Q13">
+        <v>79</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.75342464447021484</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.13013698160648346</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1164383590221405</v>
+      </c>
+      <c r="G14">
+        <v>1200539.3038657843</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.5553899999999998E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.86015743017196655</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>1032652.8024336348</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5.5475828776252456E-3</v>
+      </c>
+      <c r="M14" s="7">
+        <v>8.131090144161135E-4</v>
+      </c>
+      <c r="N14">
+        <v>0.26514361946054116</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0.21896606412246911</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3342.4149402849198</v>
+      </c>
+      <c r="Q14">
+        <v>79</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.78333330154418945</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.6666670143604279E-2</v>
+      </c>
+      <c r="G15">
+        <v>1204135.3272422375</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.3901399999999998E-3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.89639145135879517</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>1079376.613619067</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="8">
+        <v>3.48168233404067E-3</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1.7416768823750317E-3</v>
+      </c>
+      <c r="N15">
+        <v>0.27881274333319384</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0.20686675499172225</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3308.5036769332501</v>
+      </c>
+      <c r="Q15">
+        <v>79</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.81034481525421143</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.482758492231369E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.482758492231369E-2</v>
+      </c>
+      <c r="G16">
+        <v>1448390.5886690344</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2.6664699999999998E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.81327581405639648</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>1177941.0350714324</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="8">
+        <v>8.4600944998669547E-3</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1.3194383645895869E-3</v>
+      </c>
+      <c r="N16">
+        <v>0.26514361946054116</v>
+      </c>
+      <c r="O16" s="28">
+        <v>0.26727708595888089</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3944.0336370939599</v>
+      </c>
+      <c r="Q16">
+        <v>79</v>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.80808079242706299</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.0606062412261963E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.13131313025951385</v>
+      </c>
+      <c r="G17">
+        <v>1401242.554288005</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6.8929400000000002E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.84229302406311035</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>1180256.8284971607</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>7.0162087736207468E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2.5802296004258096E-3</v>
+      </c>
+      <c r="N17">
+        <v>0.27881274333319384</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0.27505699497294245</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4092.15982039132</v>
+      </c>
+      <c r="Q17">
+        <v>79</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0.5</v>
+      </c>
+      <c r="W17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.74509799480438232</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.19607844948768616</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.8823529630899429E-2</v>
+      </c>
+      <c r="G18">
+        <v>1529075.1830384983</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.2971099999999998E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.72102522850036621</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>1102501.7832445726</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1.2033058566544241E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2.0201821462251246E-3</v>
+      </c>
+      <c r="N18">
+        <v>0.48930549021027109</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0.31541907972439276</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4490.23387279495</v>
+      </c>
+      <c r="Q18">
+        <v>79</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.80357146263122559</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.1071428507566452</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.9285716414451599E-2</v>
+      </c>
+      <c r="G19">
+        <v>1408692.3727937087</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.1028079999999999E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.7894633412361145</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>1112110.9873995516</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.2730202912052846E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3.6741324001923203E-3</v>
+      </c>
+      <c r="N19">
+        <v>0.46287099209344829</v>
+      </c>
+      <c r="O19" s="28">
+        <v>0.38842680694978071</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5242.6303241478399</v>
+      </c>
+      <c r="Q19">
+        <v>79</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.77551019191741943</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.12244897335767746</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.10204081982374191</v>
+      </c>
+      <c r="G20">
+        <v>1342334.4809374062</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7.5423599999999997E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.24866959452629089</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>333797.77109336393</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1.5750538110069101E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3.0021826969459653E-3</v>
+      </c>
+      <c r="N20">
+        <v>0.48930549021027109</v>
+      </c>
+      <c r="O20" s="28">
+        <v>0.3847976300545497</v>
+      </c>
+      <c r="P20" s="1">
+        <v>5159.4513116664302</v>
+      </c>
+      <c r="Q20">
+        <v>79</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.81818181276321411</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.11818182468414307</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.3636362552642822E-2</v>
+      </c>
+      <c r="G21">
+        <v>1155506.4516822975</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.745234E-2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.6206013560295105</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>717108.87081488187</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2.1413566644127968E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>4.6548991231247783E-3</v>
+      </c>
+      <c r="N21">
+        <v>0.46287099209344829</v>
+      </c>
+      <c r="O21" s="28">
+        <v>0.50408483720207187</v>
+      </c>
+      <c r="P21" s="1">
+        <v>6735.7422999481196</v>
+      </c>
+      <c r="Q21">
+        <v>79</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G22">
+        <v>817443.11859938316</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.188986E-2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>8.1963472068309784E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>67000.476218752578</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1.9690477015046781E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4.8294769367203116E-3</v>
+      </c>
+      <c r="N22">
+        <v>0.714981406056313</v>
+      </c>
+      <c r="O22" s="28">
+        <v>0.50649965363959382</v>
+      </c>
+      <c r="P22" s="1">
+        <v>6708.5918098825696</v>
+      </c>
+      <c r="Q22">
+        <v>79</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.78461539745330811</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.10769230872392654</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.10769230872392654</v>
+      </c>
+      <c r="G23">
+        <v>638652.78916675621</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.7249470000000001E-2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.17121295630931854</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>109345.63208843226</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>3.0976666903370642E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>5.9031372657045722E-3</v>
+      </c>
+      <c r="N23">
+        <v>0.65481972458716653</v>
+      </c>
+      <c r="O23" s="28">
+        <v>0.65252756379186394</v>
+      </c>
+      <c r="P23" s="1">
+        <v>8710.2265835793805</v>
+      </c>
+      <c r="Q23">
+        <v>79</v>
+      </c>
+      <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.81904762983322144</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8.5714288055896759E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.5238097012042999E-2</v>
+      </c>
+      <c r="G24">
+        <v>787781.01107808691</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.914969E-2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3.2490484416484833E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>25595.38666403525</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1.8084977609987618E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>5.8476519770920277E-3</v>
+      </c>
+      <c r="N24">
+        <v>0.714981406056313</v>
+      </c>
+      <c r="O24" s="28">
+        <v>0.57470239283622959</v>
+      </c>
+      <c r="P24" s="1">
+        <v>7873.0654922742797</v>
+      </c>
+      <c r="Q24">
+        <v>79</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.82795697450637817</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.4516127109527588E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.10752688348293304</v>
+      </c>
+      <c r="G25">
+        <v>534281.76249755372</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.7138829999999998E-2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>7.283329963684082E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>38913.50369848375</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="8">
+        <v>3.5583561451403511E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5.9482122305780649E-3</v>
+      </c>
+      <c r="N25">
+        <v>0.65481972458716653</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0.75280468968730929</v>
+      </c>
+      <c r="P25" s="1">
+        <v>10292.1150553646</v>
+      </c>
+      <c r="Q25">
+        <v>79</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.7816091775894165</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.1954022645950317E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.12643678486347198</v>
+      </c>
+      <c r="G26">
+        <v>719284.10659203865</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3.085947E-2</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.4018112793564796E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>10083.005736825682</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1.7682773554497544E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7.3891112115234137E-3</v>
+      </c>
+      <c r="N26">
+        <v>0.85686544218787919</v>
+      </c>
+      <c r="O26" s="28">
+        <v>0.69358514642544833</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9049.0925595055105</v>
+      </c>
+      <c r="Q26">
+        <v>79</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.79032260179519653</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.6774190664291382E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.11290322244167328</v>
+      </c>
+      <c r="G27">
+        <v>424126.92288729502</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5.3876819999999999E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3.7903346121311188E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>16075.829557563802</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="8">
+        <v>3.8642153014734504E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6.7930074874311686E-3</v>
+      </c>
+      <c r="N27">
+        <v>0.77044250322211094</v>
+      </c>
+      <c r="O27" s="28">
+        <v>0.90916031577125977</v>
+      </c>
+      <c r="P27" s="1">
+        <v>11593.3910936179</v>
+      </c>
+      <c r="Q27">
+        <v>79</v>
+      </c>
+      <c r="R27">
+        <v>0.5</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.8888888955116272</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.1111111119389534</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>983115.65548705647</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.14248351000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4.5846062712371349E-3</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>4507.1981994973657</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.16558913736841294</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7.7970464277322083E-3</v>
+      </c>
+      <c r="N28">
+        <v>0.85686544218787919</v>
+      </c>
+      <c r="O28" s="28">
+        <v>0.44025889901854803</v>
+      </c>
+      <c r="P28" s="1">
+        <v>17969.037119033957</v>
+      </c>
+      <c r="Q28">
+        <v>79</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.71428573131561279</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.28571429848670959</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>423655.44720715767</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.16703204000000002</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2.6178202591836452E-2</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>11090.538126124047</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.2059349065789314</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7.4583895782668226E-3</v>
+      </c>
+      <c r="N29">
+        <v>0.77044250322211094</v>
+      </c>
+      <c r="O29" s="28">
+        <v>0.65528288627754439</v>
+      </c>
+      <c r="P29" s="1">
+        <v>21518.665085318702</v>
+      </c>
+      <c r="Q29">
+        <v>79</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AB25F1-C7CB-43B1-9431-DF8AAC3DD7E9}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.41153390857773042</v>
+      </c>
+      <c r="E2">
+        <v>0.2282693152641323</v>
+      </c>
+      <c r="F2">
+        <v>0.36019677615813722</v>
+      </c>
+      <c r="G2">
+        <v>2.0801960784313714E-4</v>
+      </c>
+      <c r="H2">
+        <v>1131077.3323752533</v>
+      </c>
+      <c r="I2">
+        <v>5.8898938961418006E-2</v>
+      </c>
+      <c r="J2">
+        <v>66619.254760213546</v>
+      </c>
+      <c r="K2">
+        <v>723.10746568757247</v>
+      </c>
+      <c r="L2">
+        <v>6.6590451405090789E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.34898571937681711</v>
+      </c>
+      <c r="E3">
+        <v>0.241416975678347</v>
+      </c>
+      <c r="F3">
+        <v>0.40959730494483598</v>
+      </c>
+      <c r="G3">
+        <v>5.5418726591760297E-4</v>
+      </c>
+      <c r="H3">
+        <v>1179683.0167621898</v>
+      </c>
+      <c r="I3">
+        <v>8.5862511989439436E-2</v>
+      </c>
+      <c r="J3">
+        <v>101290.5471704816</v>
+      </c>
+      <c r="K3">
+        <v>979.86960612269218</v>
+      </c>
+      <c r="L3">
+        <v>7.795456899657438E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.41153390857773042</v>
+      </c>
+      <c r="E4">
+        <v>0.2282693152641323</v>
+      </c>
+      <c r="F4">
+        <v>0.36019677615813722</v>
+      </c>
+      <c r="G4">
+        <v>2.4228318584070793E-4</v>
+      </c>
+      <c r="H4">
+        <v>1363470.0242741166</v>
+      </c>
+      <c r="I4">
+        <v>0.37869734166073626</v>
+      </c>
+      <c r="J4">
+        <v>516342.47362670751</v>
+      </c>
+      <c r="K4">
+        <v>6622.0419266627696</v>
+      </c>
+      <c r="L4">
+        <v>4.8755285649804136E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.34898571937681711</v>
+      </c>
+      <c r="E5">
+        <v>0.241416975678347</v>
+      </c>
+      <c r="F5">
+        <v>0.40959730494483598</v>
+      </c>
+      <c r="G5">
+        <v>1.0104123711340205E-3</v>
+      </c>
+      <c r="H5">
+        <v>1414775.7521785111</v>
+      </c>
+      <c r="I5">
+        <v>0.51025066599234792</v>
+      </c>
+      <c r="J5">
+        <v>721890.26977891033</v>
+      </c>
+      <c r="K5">
+        <v>3857.9432505630307</v>
+      </c>
+      <c r="L5">
+        <v>5.5708469398041416E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.51467606105346286</v>
+      </c>
+      <c r="E6">
+        <v>0.21891576538572805</v>
+      </c>
+      <c r="F6">
+        <v>0.26640817356080915</v>
+      </c>
+      <c r="G6">
+        <v>2.5001626016260157E-4</v>
+      </c>
+      <c r="H6">
+        <v>1614627.5604918366</v>
+      </c>
+      <c r="I6">
+        <v>0.61406751875313947</v>
+      </c>
+      <c r="J6">
+        <v>991490.33978165674</v>
+      </c>
+      <c r="K6">
+        <v>14845.581079593914</v>
+      </c>
+      <c r="L6">
+        <v>6.9245836493792012E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.53668006758712306</v>
+      </c>
+      <c r="E7">
+        <v>0.22325879374236696</v>
+      </c>
+      <c r="F7">
+        <v>0.24006113867050977</v>
+      </c>
+      <c r="G7">
+        <v>1.1103738317757011E-3</v>
+      </c>
+      <c r="H7">
+        <v>1662231.4473845728</v>
+      </c>
+      <c r="I7">
+        <v>0.73992421298847855</v>
+      </c>
+      <c r="J7">
+        <v>1229925.2955107295</v>
+      </c>
+      <c r="K7">
+        <v>7379.545678627278</v>
+      </c>
+      <c r="L7">
+        <v>6.8943336134452693E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.51467606105346286</v>
+      </c>
+      <c r="E8">
+        <v>0.21891576538572805</v>
+      </c>
+      <c r="F8">
+        <v>0.26640817356080915</v>
+      </c>
+      <c r="G8">
+        <v>3.8204278074866312E-4</v>
+      </c>
+      <c r="H8">
+        <v>1541068.444409075</v>
+      </c>
+      <c r="I8">
+        <v>0.65423247211499258</v>
+      </c>
+      <c r="J8">
+        <v>1008217.0180841552</v>
+      </c>
+      <c r="K8">
+        <v>12207.999893576663</v>
+      </c>
+      <c r="L8">
+        <v>1.2709945149822488E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.53668006758712306</v>
+      </c>
+      <c r="E9">
+        <v>0.22325879374236696</v>
+      </c>
+      <c r="F9">
+        <v>0.24006113867050977</v>
+      </c>
+      <c r="G9">
+        <v>1.3381496183206109E-3</v>
+      </c>
+      <c r="H9">
+        <v>1587536.2617654814</v>
+      </c>
+      <c r="I9">
+        <v>0.78482527924771162</v>
+      </c>
+      <c r="J9">
+        <v>1245938.5899559623</v>
+      </c>
+      <c r="K9">
+        <v>7150.4971161150588</v>
+      </c>
+      <c r="L9">
+        <v>8.0549759979930968E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.56122308466509352</v>
+      </c>
+      <c r="E10">
+        <v>0.24423684521597994</v>
+      </c>
+      <c r="F10">
+        <v>0.19454007011892657</v>
+      </c>
+      <c r="G10">
+        <v>6.1802622950819666E-4</v>
+      </c>
+      <c r="H10">
+        <v>1422315.2730428765</v>
+      </c>
+      <c r="I10">
+        <v>0.68289002667307774</v>
+      </c>
+      <c r="J10">
+        <v>971284.91474577575</v>
+      </c>
+      <c r="K10">
+        <v>7366.8617682763979</v>
+      </c>
+      <c r="L10">
+        <v>2.1328539063460994E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.59947081540974734</v>
+      </c>
+      <c r="E11">
+        <v>0.2308183507769182</v>
+      </c>
+      <c r="F11">
+        <v>0.16971083381333449</v>
+      </c>
+      <c r="G11">
+        <v>2.0964420432220041E-3</v>
+      </c>
+      <c r="H11">
+        <v>1461507.4156286435</v>
+      </c>
+      <c r="I11">
+        <v>0.78573707363262058</v>
+      </c>
+      <c r="J11">
+        <v>1148360.5598484245</v>
+      </c>
+      <c r="K11">
+        <v>6673.4974053379801</v>
+      </c>
+      <c r="L11">
+        <v>1.1551921439263424E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.56122308466509352</v>
+      </c>
+      <c r="E12">
+        <v>0.24423684521597994</v>
+      </c>
+      <c r="F12">
+        <v>0.19454007011892657</v>
+      </c>
+      <c r="G12">
+        <v>1.1222348623853211E-3</v>
+      </c>
+      <c r="H12">
+        <v>1188521.7266578516</v>
+      </c>
+      <c r="I12">
+        <v>0.6982886126137634</v>
+      </c>
+      <c r="J12">
+        <v>829931.18756922579</v>
+      </c>
+      <c r="K12">
+        <v>6330.3035814945742</v>
+      </c>
+      <c r="L12">
+        <v>3.4850147079055205E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.59947081540974734</v>
+      </c>
+      <c r="E13">
+        <v>0.2308183507769182</v>
+      </c>
+      <c r="F13">
+        <v>0.16971083381333449</v>
+      </c>
+      <c r="G13">
+        <v>3.3948874010955575E-3</v>
+      </c>
+      <c r="H13">
+        <v>1211018.4583885893</v>
+      </c>
+      <c r="I13">
+        <v>0.76641501639219534</v>
+      </c>
+      <c r="J13">
+        <v>928142.73163714178</v>
+      </c>
+      <c r="K13">
+        <v>6247.9979867786524</v>
+      </c>
+      <c r="L13">
+        <v>1.7244978484995954E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.65299147649962708</v>
+      </c>
+      <c r="E14">
+        <v>0.16156270974884201</v>
+      </c>
+      <c r="F14">
+        <v>0.18544581375153102</v>
+      </c>
+      <c r="G14">
+        <v>1.9623009404388715E-3</v>
+      </c>
+      <c r="H14">
+        <v>1200539.3038657843</v>
+      </c>
+      <c r="I14">
+        <v>0.68597674086525617</v>
+      </c>
+      <c r="J14">
+        <v>823542.03894649411</v>
+      </c>
+      <c r="K14">
+        <v>6296.6306655328372</v>
+      </c>
+      <c r="L14">
+        <v>5.5475828776252456E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.68188703140884477</v>
+      </c>
+      <c r="E15">
+        <v>0.14706111868681027</v>
+      </c>
+      <c r="F15">
+        <v>0.17105184990434502</v>
+      </c>
+      <c r="G15">
+        <v>5.5157316798196184E-3</v>
+      </c>
+      <c r="H15">
+        <v>1204135.3272422375</v>
+      </c>
+      <c r="I15">
+        <v>0.72868485777339942</v>
+      </c>
+      <c r="J15">
+        <v>877435.17967143562</v>
+      </c>
+      <c r="K15">
+        <v>5868.670841286189</v>
+      </c>
+      <c r="L15">
+        <v>3.48168233404067E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.65299147649962708</v>
+      </c>
+      <c r="E16">
+        <v>0.16156270974884201</v>
+      </c>
+      <c r="F16">
+        <v>0.18544581375153102</v>
+      </c>
+      <c r="G16">
+        <v>3.48886272189349E-3</v>
+      </c>
+      <c r="H16">
+        <v>1448390.5886690344</v>
+      </c>
+      <c r="I16">
+        <v>0.60765334060191711</v>
+      </c>
+      <c r="J16">
+        <v>880119.37970111601</v>
+      </c>
+      <c r="K16">
+        <v>8961.7416584269868</v>
+      </c>
+      <c r="L16">
+        <v>8.4600944998669547E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.68188703140884477</v>
+      </c>
+      <c r="E17">
+        <v>0.14706111868681027</v>
+      </c>
+      <c r="F17">
+        <v>0.17105184990434502</v>
+      </c>
+      <c r="G17">
+        <v>9.1781938566552878E-3</v>
+      </c>
+      <c r="H17">
+        <v>1401242.554288005</v>
+      </c>
+      <c r="I17">
+        <v>0.67584192910791019</v>
+      </c>
+      <c r="J17">
+        <v>947018.47103810089</v>
+      </c>
+      <c r="K17">
+        <v>8999.8633437225508</v>
+      </c>
+      <c r="L17">
+        <v>7.0162087736207468E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.72692270944694592</v>
+      </c>
+      <c r="E18">
+        <v>0.1604501430455437</v>
+      </c>
+      <c r="F18">
+        <v>0.11262714750751025</v>
+      </c>
+      <c r="G18">
+        <v>5.4477540921202905E-3</v>
+      </c>
+      <c r="H18">
+        <v>1529075.1830384983</v>
+      </c>
+      <c r="I18">
+        <v>0.41104857209358192</v>
+      </c>
+      <c r="J18">
+        <v>628524.17061170714</v>
+      </c>
+      <c r="K18">
+        <v>6423.7825120926227</v>
+      </c>
+      <c r="L18">
+        <v>1.2033058566544241E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.70687986546769555</v>
+      </c>
+      <c r="E19">
+        <v>0.17073670775593985</v>
+      </c>
+      <c r="F19">
+        <v>0.12238342677636464</v>
+      </c>
+      <c r="G19">
+        <v>1.3909140147523707E-2</v>
+      </c>
+      <c r="H19">
+        <v>1408692.3727937087</v>
+      </c>
+      <c r="I19">
+        <v>0.5749503071690879</v>
+      </c>
+      <c r="J19">
+        <v>809928.11244449415</v>
+      </c>
+      <c r="K19">
+        <v>7656.3826963320707</v>
+      </c>
+      <c r="L19">
+        <v>1.2730202912052846E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.72692270944694592</v>
+      </c>
+      <c r="E20">
+        <v>0.1604501430455437</v>
+      </c>
+      <c r="F20">
+        <v>0.11262714750751025</v>
+      </c>
+      <c r="G20">
+        <v>8.441399457192203E-3</v>
+      </c>
+      <c r="H20">
+        <v>1342334.4809374062</v>
+      </c>
+      <c r="I20">
+        <v>0.15861254989671175</v>
+      </c>
+      <c r="J20">
+        <v>212911.094835761</v>
+      </c>
+      <c r="K20">
+        <v>1135.6875697615424</v>
+      </c>
+      <c r="L20">
+        <v>1.5750538110069101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.70687986546769555</v>
+      </c>
+      <c r="E21">
+        <v>0.17073670775593985</v>
+      </c>
+      <c r="F21">
+        <v>0.12238342677636464</v>
+      </c>
+      <c r="G21">
+        <v>2.0588573375368659E-2</v>
+      </c>
+      <c r="H21">
+        <v>1155506.4516822975</v>
+      </c>
+      <c r="I21">
+        <v>0.34813522637040223</v>
+      </c>
+      <c r="J21">
+        <v>402272.50012887688</v>
+      </c>
+      <c r="K21">
+        <v>4900.3170049044484</v>
+      </c>
+      <c r="L21">
+        <v>2.1413566644127968E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.82899510445479774</v>
+      </c>
+      <c r="E22">
+        <v>8.9892778128426554E-2</v>
+      </c>
+      <c r="F22">
+        <v>8.1112117416775639E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.2481304376879389E-2</v>
+      </c>
+      <c r="H22">
+        <v>817443.11859938316</v>
+      </c>
+      <c r="I22">
+        <v>6.660554382663629E-2</v>
+      </c>
+      <c r="J22">
+        <v>54446.243461653459</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1.9690477015046781E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.78153611629897501</v>
+      </c>
+      <c r="E23">
+        <v>0.10546700209002798</v>
+      </c>
+      <c r="F23">
+        <v>0.11299688161099694</v>
+      </c>
+      <c r="G23">
+        <v>2.877697170632617E-2</v>
+      </c>
+      <c r="H23">
+        <v>638652.78916675621</v>
+      </c>
+      <c r="I23">
+        <v>0.14999166831993871</v>
+      </c>
+      <c r="J23">
+        <v>95792.597324303846</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3.0976666903370642E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.82899510445479774</v>
+      </c>
+      <c r="E24">
+        <v>8.9892778128426554E-2</v>
+      </c>
+      <c r="F24">
+        <v>8.1112117416775639E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.887546878446944E-2</v>
+      </c>
+      <c r="H24">
+        <v>787781.01107808691</v>
+      </c>
+      <c r="I24">
+        <v>2.8936051411318584E-2</v>
+      </c>
+      <c r="J24">
+        <v>22795.271837416058</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1.8084977609987618E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.78153611629897501</v>
+      </c>
+      <c r="E25">
+        <v>0.10546700209002798</v>
+      </c>
+      <c r="F25">
+        <v>0.11299688161099694</v>
+      </c>
+      <c r="G25">
+        <v>4.0475969138977462E-2</v>
+      </c>
+      <c r="H25">
+        <v>534281.76249755372</v>
+      </c>
+      <c r="I25">
+        <v>6.9394492622861764E-2</v>
+      </c>
+      <c r="J25">
+        <v>37076.211826166073</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>3.5583561451403511E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.96306246115503036</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3.6937538844969801E-2</v>
+      </c>
+      <c r="G26">
+        <v>3.2628251402345744E-2</v>
+      </c>
+      <c r="H26">
+        <v>719284.10659203865</v>
+      </c>
+      <c r="I26">
+        <v>1.4322594924013863E-2</v>
+      </c>
+      <c r="J26">
+        <v>10302.014893998979</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.7682773554497544E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.94432292961168929</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>5.5677070388310601E-2</v>
+      </c>
+      <c r="G27">
+        <v>6.0538138063410456E-2</v>
+      </c>
+      <c r="H27">
+        <v>424126.92288729502</v>
+      </c>
+      <c r="I27">
+        <v>4.1879348784125761E-2</v>
+      </c>
+      <c r="J27">
+        <v>17762.159332335039</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3.8642153014734504E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.96306246115503036</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3.6937538844969801E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.12802421337959968</v>
+      </c>
+      <c r="H28">
+        <v>983115.65548705647</v>
+      </c>
+      <c r="I28">
+        <v>3.8398341883118196E-3</v>
+      </c>
+      <c r="J28">
+        <v>3775.0011050037838</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0.21229849472395049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.94432292961168929</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5.5677070388310601E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.14954551058834054</v>
+      </c>
+      <c r="H29">
+        <v>423655.44720715767</v>
+      </c>
+      <c r="I29">
+        <v>1.620744030796456E-2</v>
+      </c>
+      <c r="J29">
+        <v>6866.3703717540393</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3.2731063148959745E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F99EC-9B05-4CA0-9FD5-A05AE30DCAD7}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3830,7 +7029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7704DD5-F8E6-4952-8CF9-7573652DA9ED}">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -4976,1130 +8175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AB25F1-C7CB-43B1-9431-DF8AAC3DD7E9}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="G1:G1048576 B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>2012</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.41153390857773042</v>
-      </c>
-      <c r="E2">
-        <v>0.2282693152641323</v>
-      </c>
-      <c r="F2">
-        <v>0.36019677615813722</v>
-      </c>
-      <c r="G2">
-        <v>2.0801960784313714E-4</v>
-      </c>
-      <c r="H2">
-        <v>1131077.3323752533</v>
-      </c>
-      <c r="I2">
-        <v>5.8898938961418006E-2</v>
-      </c>
-      <c r="J2">
-        <v>66619.254760213546</v>
-      </c>
-      <c r="K2">
-        <v>723.10746568757247</v>
-      </c>
-      <c r="L2">
-        <v>6.6590451405090789E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>2012</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.34898571937681711</v>
-      </c>
-      <c r="E3">
-        <v>0.241416975678347</v>
-      </c>
-      <c r="F3">
-        <v>0.40959730494483598</v>
-      </c>
-      <c r="G3">
-        <v>5.5418726591760297E-4</v>
-      </c>
-      <c r="H3">
-        <v>1179683.0167621898</v>
-      </c>
-      <c r="I3">
-        <v>8.5862511989439436E-2</v>
-      </c>
-      <c r="J3">
-        <v>101290.5471704816</v>
-      </c>
-      <c r="K3">
-        <v>979.86960612269218</v>
-      </c>
-      <c r="L3">
-        <v>7.795456899657438E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.41153390857773042</v>
-      </c>
-      <c r="E4">
-        <v>0.2282693152641323</v>
-      </c>
-      <c r="F4">
-        <v>0.36019677615813722</v>
-      </c>
-      <c r="G4">
-        <v>2.4228318584070793E-4</v>
-      </c>
-      <c r="H4">
-        <v>1363470.0242741166</v>
-      </c>
-      <c r="I4">
-        <v>0.37869734166073626</v>
-      </c>
-      <c r="J4">
-        <v>516342.47362670751</v>
-      </c>
-      <c r="K4">
-        <v>6622.0419266627696</v>
-      </c>
-      <c r="L4">
-        <v>4.8755285649804136E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.34898571937681711</v>
-      </c>
-      <c r="E5">
-        <v>0.241416975678347</v>
-      </c>
-      <c r="F5">
-        <v>0.40959730494483598</v>
-      </c>
-      <c r="G5">
-        <v>1.0104123711340205E-3</v>
-      </c>
-      <c r="H5">
-        <v>1414775.7521785111</v>
-      </c>
-      <c r="I5">
-        <v>0.51025066599234792</v>
-      </c>
-      <c r="J5">
-        <v>721890.26977891033</v>
-      </c>
-      <c r="K5">
-        <v>3857.9432505630307</v>
-      </c>
-      <c r="L5">
-        <v>5.5708469398041416E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>2012</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.51467606105346286</v>
-      </c>
-      <c r="E6">
-        <v>0.21891576538572805</v>
-      </c>
-      <c r="F6">
-        <v>0.26640817356080915</v>
-      </c>
-      <c r="G6">
-        <v>2.5001626016260157E-4</v>
-      </c>
-      <c r="H6">
-        <v>1614627.5604918366</v>
-      </c>
-      <c r="I6">
-        <v>0.61406751875313947</v>
-      </c>
-      <c r="J6">
-        <v>991490.33978165674</v>
-      </c>
-      <c r="K6">
-        <v>14845.581079593914</v>
-      </c>
-      <c r="L6">
-        <v>6.9245836493792012E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>2012</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.53668006758712306</v>
-      </c>
-      <c r="E7">
-        <v>0.22325879374236696</v>
-      </c>
-      <c r="F7">
-        <v>0.24006113867050977</v>
-      </c>
-      <c r="G7">
-        <v>1.1103738317757011E-3</v>
-      </c>
-      <c r="H7">
-        <v>1662231.4473845728</v>
-      </c>
-      <c r="I7">
-        <v>0.73992421298847855</v>
-      </c>
-      <c r="J7">
-        <v>1229925.2955107295</v>
-      </c>
-      <c r="K7">
-        <v>7379.545678627278</v>
-      </c>
-      <c r="L7">
-        <v>6.8943336134452693E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.51467606105346286</v>
-      </c>
-      <c r="E8">
-        <v>0.21891576538572805</v>
-      </c>
-      <c r="F8">
-        <v>0.26640817356080915</v>
-      </c>
-      <c r="G8">
-        <v>3.8204278074866312E-4</v>
-      </c>
-      <c r="H8">
-        <v>1541068.444409075</v>
-      </c>
-      <c r="I8">
-        <v>0.65423247211499258</v>
-      </c>
-      <c r="J8">
-        <v>1008217.0180841552</v>
-      </c>
-      <c r="K8">
-        <v>12207.999893576663</v>
-      </c>
-      <c r="L8">
-        <v>1.2709945149822488E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>2012</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.53668006758712306</v>
-      </c>
-      <c r="E9">
-        <v>0.22325879374236696</v>
-      </c>
-      <c r="F9">
-        <v>0.24006113867050977</v>
-      </c>
-      <c r="G9">
-        <v>1.3381496183206109E-3</v>
-      </c>
-      <c r="H9">
-        <v>1587536.2617654814</v>
-      </c>
-      <c r="I9">
-        <v>0.78482527924771162</v>
-      </c>
-      <c r="J9">
-        <v>1245938.5899559623</v>
-      </c>
-      <c r="K9">
-        <v>7150.4971161150588</v>
-      </c>
-      <c r="L9">
-        <v>8.0549759979930968E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>2012</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.56122308466509352</v>
-      </c>
-      <c r="E10">
-        <v>0.24423684521597994</v>
-      </c>
-      <c r="F10">
-        <v>0.19454007011892657</v>
-      </c>
-      <c r="G10">
-        <v>6.1802622950819666E-4</v>
-      </c>
-      <c r="H10">
-        <v>1422315.2730428765</v>
-      </c>
-      <c r="I10">
-        <v>0.68289002667307774</v>
-      </c>
-      <c r="J10">
-        <v>971284.91474577575</v>
-      </c>
-      <c r="K10">
-        <v>7366.8617682763979</v>
-      </c>
-      <c r="L10">
-        <v>2.1328539063460994E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.59947081540974734</v>
-      </c>
-      <c r="E11">
-        <v>0.2308183507769182</v>
-      </c>
-      <c r="F11">
-        <v>0.16971083381333449</v>
-      </c>
-      <c r="G11">
-        <v>2.0964420432220041E-3</v>
-      </c>
-      <c r="H11">
-        <v>1461507.4156286435</v>
-      </c>
-      <c r="I11">
-        <v>0.78573707363262058</v>
-      </c>
-      <c r="J11">
-        <v>1148360.5598484245</v>
-      </c>
-      <c r="K11">
-        <v>6673.4974053379801</v>
-      </c>
-      <c r="L11">
-        <v>1.1551921439263424E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>2012</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0.56122308466509352</v>
-      </c>
-      <c r="E12">
-        <v>0.24423684521597994</v>
-      </c>
-      <c r="F12">
-        <v>0.19454007011892657</v>
-      </c>
-      <c r="G12">
-        <v>1.1222348623853211E-3</v>
-      </c>
-      <c r="H12">
-        <v>1188521.7266578516</v>
-      </c>
-      <c r="I12">
-        <v>0.6982886126137634</v>
-      </c>
-      <c r="J12">
-        <v>829931.18756922579</v>
-      </c>
-      <c r="K12">
-        <v>6330.3035814945742</v>
-      </c>
-      <c r="L12">
-        <v>3.4850147079055205E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>2012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.59947081540974734</v>
-      </c>
-      <c r="E13">
-        <v>0.2308183507769182</v>
-      </c>
-      <c r="F13">
-        <v>0.16971083381333449</v>
-      </c>
-      <c r="G13">
-        <v>3.3948874010955575E-3</v>
-      </c>
-      <c r="H13">
-        <v>1211018.4583885893</v>
-      </c>
-      <c r="I13">
-        <v>0.76641501639219534</v>
-      </c>
-      <c r="J13">
-        <v>928142.73163714178</v>
-      </c>
-      <c r="K13">
-        <v>6247.9979867786524</v>
-      </c>
-      <c r="L13">
-        <v>1.7244978484995954E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>2012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.65299147649962708</v>
-      </c>
-      <c r="E14">
-        <v>0.16156270974884201</v>
-      </c>
-      <c r="F14">
-        <v>0.18544581375153102</v>
-      </c>
-      <c r="G14">
-        <v>1.9623009404388715E-3</v>
-      </c>
-      <c r="H14">
-        <v>1200539.3038657843</v>
-      </c>
-      <c r="I14">
-        <v>0.68597674086525617</v>
-      </c>
-      <c r="J14">
-        <v>823542.03894649411</v>
-      </c>
-      <c r="K14">
-        <v>6296.6306655328372</v>
-      </c>
-      <c r="L14">
-        <v>5.5475828776252456E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.68188703140884477</v>
-      </c>
-      <c r="E15">
-        <v>0.14706111868681027</v>
-      </c>
-      <c r="F15">
-        <v>0.17105184990434502</v>
-      </c>
-      <c r="G15">
-        <v>5.5157316798196184E-3</v>
-      </c>
-      <c r="H15">
-        <v>1204135.3272422375</v>
-      </c>
-      <c r="I15">
-        <v>0.72868485777339942</v>
-      </c>
-      <c r="J15">
-        <v>877435.17967143562</v>
-      </c>
-      <c r="K15">
-        <v>5868.670841286189</v>
-      </c>
-      <c r="L15">
-        <v>3.48168233404067E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>2012</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.65299147649962708</v>
-      </c>
-      <c r="E16">
-        <v>0.16156270974884201</v>
-      </c>
-      <c r="F16">
-        <v>0.18544581375153102</v>
-      </c>
-      <c r="G16">
-        <v>3.48886272189349E-3</v>
-      </c>
-      <c r="H16">
-        <v>1448390.5886690344</v>
-      </c>
-      <c r="I16">
-        <v>0.60765334060191711</v>
-      </c>
-      <c r="J16">
-        <v>880119.37970111601</v>
-      </c>
-      <c r="K16">
-        <v>8961.7416584269868</v>
-      </c>
-      <c r="L16">
-        <v>8.4600944998669547E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>2012</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0.68188703140884477</v>
-      </c>
-      <c r="E17">
-        <v>0.14706111868681027</v>
-      </c>
-      <c r="F17">
-        <v>0.17105184990434502</v>
-      </c>
-      <c r="G17">
-        <v>9.1781938566552878E-3</v>
-      </c>
-      <c r="H17">
-        <v>1401242.554288005</v>
-      </c>
-      <c r="I17">
-        <v>0.67584192910791019</v>
-      </c>
-      <c r="J17">
-        <v>947018.47103810089</v>
-      </c>
-      <c r="K17">
-        <v>8999.8633437225508</v>
-      </c>
-      <c r="L17">
-        <v>7.0162087736207468E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>2012</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.72692270944694592</v>
-      </c>
-      <c r="E18">
-        <v>0.1604501430455437</v>
-      </c>
-      <c r="F18">
-        <v>0.11262714750751025</v>
-      </c>
-      <c r="G18">
-        <v>5.4477540921202905E-3</v>
-      </c>
-      <c r="H18">
-        <v>1529075.1830384983</v>
-      </c>
-      <c r="I18">
-        <v>0.41104857209358192</v>
-      </c>
-      <c r="J18">
-        <v>628524.17061170714</v>
-      </c>
-      <c r="K18">
-        <v>6423.7825120926227</v>
-      </c>
-      <c r="L18">
-        <v>1.2033058566544241E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>2012</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.70687986546769555</v>
-      </c>
-      <c r="E19">
-        <v>0.17073670775593985</v>
-      </c>
-      <c r="F19">
-        <v>0.12238342677636464</v>
-      </c>
-      <c r="G19">
-        <v>1.3909140147523707E-2</v>
-      </c>
-      <c r="H19">
-        <v>1408692.3727937087</v>
-      </c>
-      <c r="I19">
-        <v>0.5749503071690879</v>
-      </c>
-      <c r="J19">
-        <v>809928.11244449415</v>
-      </c>
-      <c r="K19">
-        <v>7656.3826963320707</v>
-      </c>
-      <c r="L19">
-        <v>1.2730202912052846E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>2012</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0.72692270944694592</v>
-      </c>
-      <c r="E20">
-        <v>0.1604501430455437</v>
-      </c>
-      <c r="F20">
-        <v>0.11262714750751025</v>
-      </c>
-      <c r="G20">
-        <v>8.441399457192203E-3</v>
-      </c>
-      <c r="H20">
-        <v>1342334.4809374062</v>
-      </c>
-      <c r="I20">
-        <v>0.15861254989671175</v>
-      </c>
-      <c r="J20">
-        <v>212911.094835761</v>
-      </c>
-      <c r="K20">
-        <v>1135.6875697615424</v>
-      </c>
-      <c r="L20">
-        <v>1.5750538110069101E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>2012</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0.70687986546769555</v>
-      </c>
-      <c r="E21">
-        <v>0.17073670775593985</v>
-      </c>
-      <c r="F21">
-        <v>0.12238342677636464</v>
-      </c>
-      <c r="G21">
-        <v>2.0588573375368659E-2</v>
-      </c>
-      <c r="H21">
-        <v>1155506.4516822975</v>
-      </c>
-      <c r="I21">
-        <v>0.34813522637040223</v>
-      </c>
-      <c r="J21">
-        <v>402272.50012887688</v>
-      </c>
-      <c r="K21">
-        <v>4900.3170049044484</v>
-      </c>
-      <c r="L21">
-        <v>2.1413566644127968E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>2012</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0.82899510445479774</v>
-      </c>
-      <c r="E22">
-        <v>8.9892778128426554E-2</v>
-      </c>
-      <c r="F22">
-        <v>8.1112117416775639E-2</v>
-      </c>
-      <c r="G22">
-        <v>1.2481304376879389E-2</v>
-      </c>
-      <c r="H22">
-        <v>817443.11859938316</v>
-      </c>
-      <c r="I22">
-        <v>6.660554382663629E-2</v>
-      </c>
-      <c r="J22">
-        <v>54446.243461653459</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1.9690477015046781E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>2012</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0.78153611629897501</v>
-      </c>
-      <c r="E23">
-        <v>0.10546700209002798</v>
-      </c>
-      <c r="F23">
-        <v>0.11299688161099694</v>
-      </c>
-      <c r="G23">
-        <v>2.877697170632617E-2</v>
-      </c>
-      <c r="H23">
-        <v>638652.78916675621</v>
-      </c>
-      <c r="I23">
-        <v>0.14999166831993871</v>
-      </c>
-      <c r="J23">
-        <v>95792.597324303846</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>3.0976666903370642E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>2012</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0.82899510445479774</v>
-      </c>
-      <c r="E24">
-        <v>8.9892778128426554E-2</v>
-      </c>
-      <c r="F24">
-        <v>8.1112117416775639E-2</v>
-      </c>
-      <c r="G24">
-        <v>1.887546878446944E-2</v>
-      </c>
-      <c r="H24">
-        <v>787781.01107808691</v>
-      </c>
-      <c r="I24">
-        <v>2.8936051411318584E-2</v>
-      </c>
-      <c r="J24">
-        <v>22795.271837416058</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1.8084977609987618E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>2012</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0.78153611629897501</v>
-      </c>
-      <c r="E25">
-        <v>0.10546700209002798</v>
-      </c>
-      <c r="F25">
-        <v>0.11299688161099694</v>
-      </c>
-      <c r="G25">
-        <v>4.0475969138977462E-2</v>
-      </c>
-      <c r="H25">
-        <v>534281.76249755372</v>
-      </c>
-      <c r="I25">
-        <v>6.9394492622861764E-2</v>
-      </c>
-      <c r="J25">
-        <v>37076.211826166073</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>3.5583561451403511E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>2012</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0.96306246115503036</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3.6937538844969801E-2</v>
-      </c>
-      <c r="G26">
-        <v>3.2628251402345744E-2</v>
-      </c>
-      <c r="H26">
-        <v>719284.10659203865</v>
-      </c>
-      <c r="I26">
-        <v>1.4322594924013863E-2</v>
-      </c>
-      <c r="J26">
-        <v>10302.014893998979</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1.7682773554497544E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>2012</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.94432292961168929</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>5.5677070388310601E-2</v>
-      </c>
-      <c r="G27">
-        <v>6.0538138063410456E-2</v>
-      </c>
-      <c r="H27">
-        <v>424126.92288729502</v>
-      </c>
-      <c r="I27">
-        <v>4.1879348784125761E-2</v>
-      </c>
-      <c r="J27">
-        <v>17762.159332335039</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>3.8642153014734504E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>2012</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0.96306246115503036</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>3.6937538844969801E-2</v>
-      </c>
-      <c r="G28">
-        <v>0.12802421337959968</v>
-      </c>
-      <c r="H28">
-        <v>983115.65548705647</v>
-      </c>
-      <c r="I28">
-        <v>3.8398341883118196E-3</v>
-      </c>
-      <c r="J28">
-        <v>3775.0011050037838</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0.21229849472395049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>2012</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.94432292961168929</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>5.5677070388310601E-2</v>
-      </c>
-      <c r="G29">
-        <v>0.14954551058834054</v>
-      </c>
-      <c r="H29">
-        <v>423655.44720715767</v>
-      </c>
-      <c r="I29">
-        <v>1.620744030796456E-2</v>
-      </c>
-      <c r="J29">
-        <v>6866.3703717540393</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>3.2731063148959745E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA03F5B-D6D8-41D2-AFE9-D49566AC1FA5}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -6439,12 +8515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130F43F0-D263-426B-9A52-D90C54CA7A5B}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8017,7 +10093,7 @@
       <c r="J33" t="s">
         <v>82</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="34" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8032,2653 +10108,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0661E1-D292-4694-8368-9DC31B72B949}">
-  <dimension ref="A1:AC41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.39999997615814209</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.36363637447357178</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.23636363446712494</v>
-      </c>
-      <c r="G2">
-        <v>1131077.3323752533</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.5357E-4</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3.2630514353513718E-2</v>
-      </c>
-      <c r="J2" s="5">
-        <f>I2*G2</f>
-        <v>36907.63512900471</v>
-      </c>
-      <c r="K2">
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="8">
-        <v>6.6590451405090789E-4</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1.0593115075607784E-3</v>
-      </c>
-      <c r="N2">
-        <v>2.280014250089063E-2</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.42111873638157249</v>
-      </c>
-      <c r="P2" s="8">
-        <v>6.6590451405090789E-4</v>
-      </c>
-      <c r="Q2">
-        <v>10000</v>
-      </c>
-      <c r="R2" s="7">
-        <v>1.0593115075607784E-3</v>
-      </c>
-      <c r="S2">
-        <v>2.280014250089063E-2</v>
-      </c>
-      <c r="T2">
-        <v>0.5</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2491.9610569266101</v>
-      </c>
-      <c r="V2">
-        <v>79</v>
-      </c>
-      <c r="W2" s="28">
-        <v>0.42111873638157249</v>
-      </c>
-      <c r="X2">
-        <v>0.5</v>
-      </c>
-      <c r="Y2">
-        <v>0.5</v>
-      </c>
-      <c r="Z2">
-        <v>0.5</v>
-      </c>
-      <c r="AA2">
-        <v>0.5</v>
-      </c>
-      <c r="AB2">
-        <v>0.5</v>
-      </c>
-      <c r="AC2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.45714282989501953</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.24285714328289032</v>
-      </c>
-      <c r="G3">
-        <v>1179683.0167621898</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.5029000000000005E-4</v>
-      </c>
-      <c r="I3" s="5">
-        <v>6.7469939589500427E-2</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J29" si="0">I3*G3</f>
-        <v>79593.141875704561</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="8">
-        <v>7.795456899657438E-4</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.0091792519233422E-3</v>
-      </c>
-      <c r="N3">
-        <v>3.8905194184697289E-2</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.29886901300801583</v>
-      </c>
-      <c r="P3" s="8">
-        <v>7.795456899657438E-4</v>
-      </c>
-      <c r="Q3">
-        <v>10000</v>
-      </c>
-      <c r="R3" s="7">
-        <v>1.0091792519233422E-3</v>
-      </c>
-      <c r="S3">
-        <v>3.8905194184697289E-2</v>
-      </c>
-      <c r="T3">
-        <v>0.5</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2394.18242102875</v>
-      </c>
-      <c r="V3">
-        <v>79</v>
-      </c>
-      <c r="W3" s="28">
-        <v>0.29886901300801583</v>
-      </c>
-      <c r="X3">
-        <v>0.5</v>
-      </c>
-      <c r="Y3">
-        <v>0.5</v>
-      </c>
-      <c r="Z3">
-        <v>0.5</v>
-      </c>
-      <c r="AA3">
-        <v>0.5</v>
-      </c>
-      <c r="AB3">
-        <v>0.5</v>
-      </c>
-      <c r="AC3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.43243241310119629</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.25225228071212769</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.31531530618667603</v>
-      </c>
-      <c r="G4">
-        <v>1363470.0242741166</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.7783000000000001E-4</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.47313639521598816</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>645107.29227011139</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="8">
-        <v>4.8755285649804136E-4</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5.0246272621734533E-4</v>
-      </c>
-      <c r="N4">
-        <v>2.280014250089063E-2</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.24796760099241055</v>
-      </c>
-      <c r="P4" s="8">
-        <v>4.8755285649804136E-4</v>
-      </c>
-      <c r="Q4">
-        <v>10000</v>
-      </c>
-      <c r="R4" s="7">
-        <v>5.0246272621734533E-4</v>
-      </c>
-      <c r="S4">
-        <v>2.280014250089063E-2</v>
-      </c>
-      <c r="T4">
-        <v>0.5</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1959.11262274878</v>
-      </c>
-      <c r="V4">
-        <v>79</v>
-      </c>
-      <c r="W4" s="28">
-        <v>0.24796760099241055</v>
-      </c>
-      <c r="X4">
-        <v>0.5</v>
-      </c>
-      <c r="Y4">
-        <v>0.5</v>
-      </c>
-      <c r="Z4">
-        <v>0.5</v>
-      </c>
-      <c r="AA4">
-        <v>0.5</v>
-      </c>
-      <c r="AB4">
-        <v>0.5</v>
-      </c>
-      <c r="AC4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.5390625</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.2421875</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.21875</v>
-      </c>
-      <c r="G5">
-        <v>1414775.7521785111</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8.2638999999999998E-4</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.57356274127960205</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>811462.65871541773</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="8">
-        <v>5.5708469398041416E-4</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4.2014366226794664E-4</v>
-      </c>
-      <c r="N5">
-        <v>3.8905194184697289E-2</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.10574141245018609</v>
-      </c>
-      <c r="P5" s="8">
-        <v>5.5708469398041416E-4</v>
-      </c>
-      <c r="Q5">
-        <v>10000</v>
-      </c>
-      <c r="R5" s="7">
-        <v>4.2014366226794664E-4</v>
-      </c>
-      <c r="S5">
-        <v>3.8905194184697289E-2</v>
-      </c>
-      <c r="T5">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1846.7459201179399</v>
-      </c>
-      <c r="V5">
-        <v>79</v>
-      </c>
-      <c r="W5" s="28">
-        <v>0.10574141245018609</v>
-      </c>
-      <c r="X5">
-        <v>0.5</v>
-      </c>
-      <c r="Y5">
-        <v>0.5</v>
-      </c>
-      <c r="Z5">
-        <v>0.5</v>
-      </c>
-      <c r="AA5">
-        <v>0.5</v>
-      </c>
-      <c r="AB5">
-        <v>0.5</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.56842106580734253</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.16842103004455566</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.26315790414810181</v>
-      </c>
-      <c r="G6">
-        <v>1614627.5604918366</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.2551999999999999E-4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.76417207717895508</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>1233853.2967714358</v>
-      </c>
-      <c r="K6">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="8">
-        <v>6.9245836493792012E-4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>4.8237247028737329E-4</v>
-      </c>
-      <c r="N6">
-        <v>3.8325258514715452E-2</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.34802791677589084</v>
-      </c>
-      <c r="P6" s="8">
-        <v>6.9245836493792012E-4</v>
-      </c>
-      <c r="Q6">
-        <v>10000</v>
-      </c>
-      <c r="R6" s="7">
-        <v>4.8237247028737329E-4</v>
-      </c>
-      <c r="S6">
-        <v>3.8325258514715452E-2</v>
-      </c>
-      <c r="T6">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2481.9486896696899</v>
-      </c>
-      <c r="V6">
-        <v>79</v>
-      </c>
-      <c r="W6" s="28">
-        <v>0.34802791677589084</v>
-      </c>
-      <c r="X6">
-        <v>0.5</v>
-      </c>
-      <c r="Y6">
-        <v>0.5</v>
-      </c>
-      <c r="Z6">
-        <v>0.5</v>
-      </c>
-      <c r="AA6">
-        <v>0.5</v>
-      </c>
-      <c r="AB6">
-        <v>0.5</v>
-      </c>
-      <c r="AC6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.39639639854431152</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.26126125454902649</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.34234234690666199</v>
-      </c>
-      <c r="G7">
-        <v>1662231.4473845728</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.0756299999999999E-3</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.90874773263931274</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>1510549.0589324937</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>6.8943336134452693E-4</v>
-      </c>
-      <c r="M7" s="7">
-        <v>5.249304958852008E-4</v>
-      </c>
-      <c r="N7">
-        <v>6.4750971264568968E-2</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.11026990975904027</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6.8943336134452693E-4</v>
-      </c>
-      <c r="Q7">
-        <v>10000</v>
-      </c>
-      <c r="R7" s="7">
-        <v>5.249304958852008E-4</v>
-      </c>
-      <c r="S7">
-        <v>6.4750971264568968E-2</v>
-      </c>
-      <c r="T7">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2084.9011072537901</v>
-      </c>
-      <c r="V7">
-        <v>79</v>
-      </c>
-      <c r="W7" s="28">
-        <v>0.11026990975904027</v>
-      </c>
-      <c r="X7">
-        <v>0.5</v>
-      </c>
-      <c r="Y7">
-        <v>0.5</v>
-      </c>
-      <c r="Z7">
-        <v>0.5</v>
-      </c>
-      <c r="AA7">
-        <v>0.5</v>
-      </c>
-      <c r="AB7">
-        <v>0.5</v>
-      </c>
-      <c r="AC7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.60283684730529785</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.24113474786281586</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.1560283750295639</v>
-      </c>
-      <c r="G8">
-        <v>1541068.444409075</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.3746000000000003E-4</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.81653016805648804</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="0"/>
-        <v>1258328.8758998925</v>
-      </c>
-      <c r="K8">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1.2709945149822488E-3</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4.2794210457941517E-4</v>
-      </c>
-      <c r="N8">
-        <v>3.8325258514715452E-2</v>
-      </c>
-      <c r="O8" s="28">
-        <v>0.31904849434255311</v>
-      </c>
-      <c r="P8" s="8">
-        <v>1.2709945149822488E-3</v>
-      </c>
-      <c r="Q8">
-        <v>10000</v>
-      </c>
-      <c r="R8" s="7">
-        <v>4.2794210457941517E-4</v>
-      </c>
-      <c r="S8">
-        <v>3.8325258514715452E-2</v>
-      </c>
-      <c r="T8">
-        <v>0.5</v>
-      </c>
-      <c r="U8" s="1">
-        <v>2608.3303700373899</v>
-      </c>
-      <c r="V8">
-        <v>79</v>
-      </c>
-      <c r="W8" s="28">
-        <v>0.31904849434255311</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="Y8">
-        <v>0.5</v>
-      </c>
-      <c r="Z8">
-        <v>0.5</v>
-      </c>
-      <c r="AA8">
-        <v>0.5</v>
-      </c>
-      <c r="AB8">
-        <v>0.5</v>
-      </c>
-      <c r="AC8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.54330706596374512</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.27559053897857666</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.18110236525535583</v>
-      </c>
-      <c r="G9">
-        <v>1587536.2617654814</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.4144699999999999E-3</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.92646867036819458</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>1470802.6095991598</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>8.0549759979930968E-4</v>
-      </c>
-      <c r="M9" s="7">
-        <v>5.5093289847718552E-4</v>
-      </c>
-      <c r="N9">
-        <v>6.4750971264568968E-2</v>
-      </c>
-      <c r="O9" s="28">
-        <v>0.12067614421852113</v>
-      </c>
-      <c r="P9" s="8">
-        <v>8.0549759979930968E-4</v>
-      </c>
-      <c r="Q9">
-        <v>10000</v>
-      </c>
-      <c r="R9" s="7">
-        <v>5.5093289847718552E-4</v>
-      </c>
-      <c r="S9">
-        <v>6.4750971264568968E-2</v>
-      </c>
-      <c r="T9">
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="1">
-        <v>2273.6089610384402</v>
-      </c>
-      <c r="V9">
-        <v>79</v>
-      </c>
-      <c r="W9" s="28">
-        <v>0.12067614421852113</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>0.5</v>
-      </c>
-      <c r="Z9">
-        <v>0.5</v>
-      </c>
-      <c r="AA9">
-        <v>0.5</v>
-      </c>
-      <c r="AB9">
-        <v>0.5</v>
-      </c>
-      <c r="AC9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10">
-        <v>2024</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.6447368860244751</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.22368419170379639</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.1315789520740509</v>
-      </c>
-      <c r="G10">
-        <v>1422315.2730428765</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6.8263999999999998E-4</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.81550407409667969</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>1159903.8998163971</v>
-      </c>
-      <c r="K10">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="8">
-        <v>2.1328539063460994E-3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4.4876473839394748E-4</v>
-      </c>
-      <c r="N10">
-        <v>9.7414272171553726E-2</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0.22750209091668694</v>
-      </c>
-      <c r="P10" s="8">
-        <v>2.1328539063460994E-3</v>
-      </c>
-      <c r="Q10">
-        <v>10000</v>
-      </c>
-      <c r="R10" s="7">
-        <v>4.4876473839394748E-4</v>
-      </c>
-      <c r="S10">
-        <v>9.7414272171553726E-2</v>
-      </c>
-      <c r="T10">
-        <v>0.5</v>
-      </c>
-      <c r="U10" s="1">
-        <v>2604.3800451805</v>
-      </c>
-      <c r="V10">
-        <v>79</v>
-      </c>
-      <c r="W10" s="28">
-        <v>0.22750209091668694</v>
-      </c>
-      <c r="X10">
-        <v>0.5</v>
-      </c>
-      <c r="Y10">
-        <v>0.5</v>
-      </c>
-      <c r="Z10">
-        <v>0.5</v>
-      </c>
-      <c r="AA10">
-        <v>0.5</v>
-      </c>
-      <c r="AB10">
-        <v>0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11">
-        <v>2024</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.65957450866699219</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.14893615245819092</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.19148936867713928</v>
-      </c>
-      <c r="G11">
-        <v>1461507.4156286435</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2.10283E-3</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.9265286922454834</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
-        <v>1354128.5545094833</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1.1551921439263424E-3</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8.2746843690983951E-4</v>
-      </c>
-      <c r="N11">
-        <v>0.13663125559964162</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0.13937097607464466</v>
-      </c>
-      <c r="P11" s="8">
-        <v>1.1551921439263424E-3</v>
-      </c>
-      <c r="Q11">
-        <v>10000</v>
-      </c>
-      <c r="R11" s="7">
-        <v>8.2746843690983951E-4</v>
-      </c>
-      <c r="S11">
-        <v>0.13663125559964162</v>
-      </c>
-      <c r="T11">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="1">
-        <v>2494.96704754336</v>
-      </c>
-      <c r="V11">
-        <v>79</v>
-      </c>
-      <c r="W11" s="28">
-        <v>0.13937097607464466</v>
-      </c>
-      <c r="X11">
-        <v>0.5</v>
-      </c>
-      <c r="Y11">
-        <v>0.5</v>
-      </c>
-      <c r="Z11">
-        <v>0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.5</v>
-      </c>
-      <c r="AB11">
-        <v>0.5</v>
-      </c>
-      <c r="AC11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12">
-        <v>2024</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.59574466943740845</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.24113476276397705</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.1631205677986145</v>
-      </c>
-      <c r="G12">
-        <v>1188521.7266578516</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9.6069999999999988E-4</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.85306209325790405</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>1013882.8320252453</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3.4850147079055205E-3</v>
-      </c>
-      <c r="M12" s="7">
-        <v>5.5796606466174126E-4</v>
-      </c>
-      <c r="N12">
-        <v>9.7414272171553726E-2</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0.19070866705698108</v>
-      </c>
-      <c r="P12" s="8">
-        <v>3.4850147079055205E-3</v>
-      </c>
-      <c r="Q12">
-        <v>10000</v>
-      </c>
-      <c r="R12" s="7">
-        <v>5.5796606466174126E-4</v>
-      </c>
-      <c r="S12">
-        <v>9.7414272171553726E-2</v>
-      </c>
-      <c r="T12">
-        <v>0.5</v>
-      </c>
-      <c r="U12" s="1">
-        <v>2861.6405970342398</v>
-      </c>
-      <c r="V12">
-        <v>79</v>
-      </c>
-      <c r="W12" s="28">
-        <v>0.19070866705698108</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="Y12">
-        <v>0.5</v>
-      </c>
-      <c r="Z12">
-        <v>0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.5</v>
-      </c>
-      <c r="AB12">
-        <v>0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13">
-        <v>2024</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.60431653261184692</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.17985613644123077</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.2158273309469223</v>
-      </c>
-      <c r="G13">
-        <v>1211018.4583885893</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.90252E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.91972529888153076</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>1113804.3135924959</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1.7244978484995954E-3</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1.2517434079200029E-3</v>
-      </c>
-      <c r="N13">
-        <v>0.13663125559964162</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0.16713251435567145</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1.7244978484995954E-3</v>
-      </c>
-      <c r="Q13">
-        <v>10000</v>
-      </c>
-      <c r="R13" s="7">
-        <v>1.2517434079200029E-3</v>
-      </c>
-      <c r="S13">
-        <v>0.13663125559964162</v>
-      </c>
-      <c r="T13">
-        <v>0.5</v>
-      </c>
-      <c r="U13" s="1">
-        <v>2865.9741042668302</v>
-      </c>
-      <c r="V13">
-        <v>79</v>
-      </c>
-      <c r="W13" s="28">
-        <v>0.16713251435567145</v>
-      </c>
-      <c r="X13">
-        <v>0.5</v>
-      </c>
-      <c r="Y13">
-        <v>0.5</v>
-      </c>
-      <c r="Z13">
-        <v>0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.5</v>
-      </c>
-      <c r="AB13">
-        <v>0.5</v>
-      </c>
-      <c r="AC13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14">
-        <v>2024</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.75342464447021484</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.13013698160648346</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.1164383590221405</v>
-      </c>
-      <c r="G14">
-        <v>1200539.3038657843</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1.5553899999999998E-3</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.86015743017196655</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>1032652.8024336348</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="8">
-        <v>5.5475828776252456E-3</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8.131090144161135E-4</v>
-      </c>
-      <c r="N14">
-        <v>0.26514361946054116</v>
-      </c>
-      <c r="O14" s="28">
-        <v>0.21896606412246911</v>
-      </c>
-      <c r="P14" s="8">
-        <v>5.5475828776252456E-3</v>
-      </c>
-      <c r="Q14">
-        <v>10000</v>
-      </c>
-      <c r="R14" s="7">
-        <v>8.131090144161135E-4</v>
-      </c>
-      <c r="S14">
-        <v>0.26514361946054116</v>
-      </c>
-      <c r="T14">
-        <v>0.5</v>
-      </c>
-      <c r="U14" s="1">
-        <v>3342.4149402849198</v>
-      </c>
-      <c r="V14">
-        <v>79</v>
-      </c>
-      <c r="W14" s="28">
-        <v>0.21896606412246911</v>
-      </c>
-      <c r="X14">
-        <v>0.5</v>
-      </c>
-      <c r="Y14">
-        <v>0.5</v>
-      </c>
-      <c r="Z14">
-        <v>0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.5</v>
-      </c>
-      <c r="AB14">
-        <v>0.5</v>
-      </c>
-      <c r="AC14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15">
-        <v>2024</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.78333330154418945</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6.6666670143604279E-2</v>
-      </c>
-      <c r="G15">
-        <v>1204135.3272422375</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.3901399999999998E-3</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.89639145135879517</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="0"/>
-        <v>1079376.613619067</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="8">
-        <v>3.48168233404067E-3</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1.7416768823750317E-3</v>
-      </c>
-      <c r="N15">
-        <v>0.27881274333319384</v>
-      </c>
-      <c r="O15" s="28">
-        <v>0.20686675499172225</v>
-      </c>
-      <c r="P15" s="8">
-        <v>3.48168233404067E-3</v>
-      </c>
-      <c r="Q15">
-        <v>10000</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1.7416768823750317E-3</v>
-      </c>
-      <c r="S15">
-        <v>0.27881274333319384</v>
-      </c>
-      <c r="T15">
-        <v>0.5</v>
-      </c>
-      <c r="U15" s="1">
-        <v>3308.5036769332501</v>
-      </c>
-      <c r="V15">
-        <v>79</v>
-      </c>
-      <c r="W15" s="28">
-        <v>0.20686675499172225</v>
-      </c>
-      <c r="X15">
-        <v>0.5</v>
-      </c>
-      <c r="Y15">
-        <v>0.5</v>
-      </c>
-      <c r="Z15">
-        <v>0.5</v>
-      </c>
-      <c r="AA15">
-        <v>0.5</v>
-      </c>
-      <c r="AB15">
-        <v>0.5</v>
-      </c>
-      <c r="AC15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.81034481525421143</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9.482758492231369E-2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9.482758492231369E-2</v>
-      </c>
-      <c r="G16">
-        <v>1448390.5886690344</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2.6664699999999998E-3</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.81327581405639648</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="0"/>
-        <v>1177941.0350714324</v>
-      </c>
-      <c r="K16">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="8">
-        <v>8.4600944998669547E-3</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1.3194383645895869E-3</v>
-      </c>
-      <c r="N16">
-        <v>0.26514361946054116</v>
-      </c>
-      <c r="O16" s="28">
-        <v>0.26727708595888089</v>
-      </c>
-      <c r="P16" s="8">
-        <v>8.4600944998669547E-3</v>
-      </c>
-      <c r="Q16">
-        <v>10000</v>
-      </c>
-      <c r="R16" s="7">
-        <v>1.3194383645895869E-3</v>
-      </c>
-      <c r="S16">
-        <v>0.26514361946054116</v>
-      </c>
-      <c r="T16">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="1">
-        <v>3944.0336370939599</v>
-      </c>
-      <c r="V16">
-        <v>79</v>
-      </c>
-      <c r="W16" s="28">
-        <v>0.26727708595888089</v>
-      </c>
-      <c r="X16">
-        <v>0.5</v>
-      </c>
-      <c r="Y16">
-        <v>0.5</v>
-      </c>
-      <c r="Z16">
-        <v>0.5</v>
-      </c>
-      <c r="AA16">
-        <v>0.5</v>
-      </c>
-      <c r="AB16">
-        <v>0.5</v>
-      </c>
-      <c r="AC16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.80808079242706299</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6.0606062412261963E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.13131313025951385</v>
-      </c>
-      <c r="G17">
-        <v>1401242.554288005</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6.8929400000000002E-3</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.84229302406311035</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="0"/>
-        <v>1180256.8284971607</v>
-      </c>
-      <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="8">
-        <v>7.0162087736207468E-3</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2.5802296004258096E-3</v>
-      </c>
-      <c r="N17">
-        <v>0.27881274333319384</v>
-      </c>
-      <c r="O17" s="28">
-        <v>0.27505699497294245</v>
-      </c>
-      <c r="P17" s="8">
-        <v>7.0162087736207468E-3</v>
-      </c>
-      <c r="Q17">
-        <v>10000</v>
-      </c>
-      <c r="R17" s="7">
-        <v>2.5802296004258096E-3</v>
-      </c>
-      <c r="S17">
-        <v>0.27881274333319384</v>
-      </c>
-      <c r="T17">
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="1">
-        <v>4092.15982039132</v>
-      </c>
-      <c r="V17">
-        <v>79</v>
-      </c>
-      <c r="W17" s="28">
-        <v>0.27505699497294245</v>
-      </c>
-      <c r="X17">
-        <v>0.5</v>
-      </c>
-      <c r="Y17">
-        <v>0.5</v>
-      </c>
-      <c r="Z17">
-        <v>0.5</v>
-      </c>
-      <c r="AA17">
-        <v>0.5</v>
-      </c>
-      <c r="AB17">
-        <v>0.5</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18">
-        <v>2024</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.74509799480438232</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.19607844948768616</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5.8823529630899429E-2</v>
-      </c>
-      <c r="G18">
-        <v>1529075.1830384983</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4.2971099999999998E-3</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.72102522850036621</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="0"/>
-        <v>1102501.7832445726</v>
-      </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1.2033058566544241E-2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2.0201821462251246E-3</v>
-      </c>
-      <c r="N18">
-        <v>0.48930549021027109</v>
-      </c>
-      <c r="O18" s="28">
-        <v>0.31541907972439276</v>
-      </c>
-      <c r="P18" s="8">
-        <v>1.2033058566544241E-2</v>
-      </c>
-      <c r="Q18">
-        <v>10000</v>
-      </c>
-      <c r="R18" s="7">
-        <v>2.0201821462251246E-3</v>
-      </c>
-      <c r="S18">
-        <v>0.48930549021027109</v>
-      </c>
-      <c r="T18">
-        <v>0.5</v>
-      </c>
-      <c r="U18" s="1">
-        <v>4490.23387279495</v>
-      </c>
-      <c r="V18">
-        <v>79</v>
-      </c>
-      <c r="W18" s="28">
-        <v>0.31541907972439276</v>
-      </c>
-      <c r="X18">
-        <v>0.5</v>
-      </c>
-      <c r="Y18">
-        <v>0.5</v>
-      </c>
-      <c r="Z18">
-        <v>0.5</v>
-      </c>
-      <c r="AA18">
-        <v>0.5</v>
-      </c>
-      <c r="AB18">
-        <v>0.5</v>
-      </c>
-      <c r="AC18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19">
-        <v>2024</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.80357146263122559</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.1071428507566452</v>
-      </c>
-      <c r="F19" s="1">
-        <v>8.9285716414451599E-2</v>
-      </c>
-      <c r="G19">
-        <v>1408692.3727937087</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.1028079999999999E-2</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.7894633412361145</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="0"/>
-        <v>1112110.9873995516</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1.2730202912052846E-2</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3.6741324001923203E-3</v>
-      </c>
-      <c r="N19">
-        <v>0.46287099209344829</v>
-      </c>
-      <c r="O19" s="28">
-        <v>0.38842680694978071</v>
-      </c>
-      <c r="P19" s="8">
-        <v>1.2730202912052846E-2</v>
-      </c>
-      <c r="Q19">
-        <v>10000</v>
-      </c>
-      <c r="R19" s="7">
-        <v>3.6741324001923203E-3</v>
-      </c>
-      <c r="S19">
-        <v>0.46287099209344829</v>
-      </c>
-      <c r="T19">
-        <v>0.5</v>
-      </c>
-      <c r="U19" s="1">
-        <v>5242.6303241478399</v>
-      </c>
-      <c r="V19">
-        <v>79</v>
-      </c>
-      <c r="W19" s="28">
-        <v>0.38842680694978071</v>
-      </c>
-      <c r="X19">
-        <v>0.5</v>
-      </c>
-      <c r="Y19">
-        <v>0.5</v>
-      </c>
-      <c r="Z19">
-        <v>0.5</v>
-      </c>
-      <c r="AA19">
-        <v>0.5</v>
-      </c>
-      <c r="AB19">
-        <v>0.5</v>
-      </c>
-      <c r="AC19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20">
-        <v>2024</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.77551019191741943</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.12244897335767746</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.10204081982374191</v>
-      </c>
-      <c r="G20">
-        <v>1342334.4809374062</v>
-      </c>
-      <c r="H20" s="2">
-        <v>7.5423599999999997E-3</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.24866959452629089</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="0"/>
-        <v>333797.77109336393</v>
-      </c>
-      <c r="K20">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1.5750538110069101E-2</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3.0021826969459653E-3</v>
-      </c>
-      <c r="N20">
-        <v>0.48930549021027109</v>
-      </c>
-      <c r="O20" s="28">
-        <v>0.3847976300545497</v>
-      </c>
-      <c r="P20" s="8">
-        <v>1.5750538110069101E-2</v>
-      </c>
-      <c r="Q20">
-        <v>10000</v>
-      </c>
-      <c r="R20" s="7">
-        <v>3.0021826969459653E-3</v>
-      </c>
-      <c r="S20">
-        <v>0.48930549021027109</v>
-      </c>
-      <c r="T20">
-        <v>0.5</v>
-      </c>
-      <c r="U20" s="1">
-        <v>5159.4513116664302</v>
-      </c>
-      <c r="V20">
-        <v>79</v>
-      </c>
-      <c r="W20" s="28">
-        <v>0.3847976300545497</v>
-      </c>
-      <c r="X20">
-        <v>0.5</v>
-      </c>
-      <c r="Y20">
-        <v>0.5</v>
-      </c>
-      <c r="Z20">
-        <v>0.5</v>
-      </c>
-      <c r="AA20">
-        <v>0.5</v>
-      </c>
-      <c r="AB20">
-        <v>0.5</v>
-      </c>
-      <c r="AC20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21">
-        <v>2024</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.81818181276321411</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.11818182468414307</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6.3636362552642822E-2</v>
-      </c>
-      <c r="G21">
-        <v>1155506.4516822975</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.745234E-2</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.6206013560295105</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="0"/>
-        <v>717108.87081488187</v>
-      </c>
-      <c r="K21">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="8">
-        <v>2.1413566644127968E-2</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4.6548991231247783E-3</v>
-      </c>
-      <c r="N21">
-        <v>0.46287099209344829</v>
-      </c>
-      <c r="O21" s="28">
-        <v>0.50408483720207187</v>
-      </c>
-      <c r="P21" s="8">
-        <v>2.1413566644127968E-2</v>
-      </c>
-      <c r="Q21">
-        <v>10000</v>
-      </c>
-      <c r="R21" s="7">
-        <v>4.6548991231247783E-3</v>
-      </c>
-      <c r="S21">
-        <v>0.46287099209344829</v>
-      </c>
-      <c r="T21">
-        <v>0.5</v>
-      </c>
-      <c r="U21" s="1">
-        <v>6735.7422999481196</v>
-      </c>
-      <c r="V21">
-        <v>79</v>
-      </c>
-      <c r="W21" s="28">
-        <v>0.50408483720207187</v>
-      </c>
-      <c r="X21">
-        <v>0.5</v>
-      </c>
-      <c r="Y21">
-        <v>0.5</v>
-      </c>
-      <c r="Z21">
-        <v>0.5</v>
-      </c>
-      <c r="AA21">
-        <v>0.5</v>
-      </c>
-      <c r="AB21">
-        <v>0.5</v>
-      </c>
-      <c r="AC21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22">
-        <v>2024</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G22">
-        <v>817443.11859938316</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.188986E-2</v>
-      </c>
-      <c r="I22" s="5">
-        <v>8.1963472068309784E-2</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="0"/>
-        <v>67000.476218752578</v>
-      </c>
-      <c r="K22">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.9690477015046781E-2</v>
-      </c>
-      <c r="M22" s="7">
-        <v>4.8294769367203116E-3</v>
-      </c>
-      <c r="N22">
-        <v>0.714981406056313</v>
-      </c>
-      <c r="O22" s="28">
-        <v>0.50649965363959382</v>
-      </c>
-      <c r="P22" s="8">
-        <v>1.9690477015046781E-2</v>
-      </c>
-      <c r="Q22">
-        <v>10000</v>
-      </c>
-      <c r="R22" s="7">
-        <v>4.8294769367203116E-3</v>
-      </c>
-      <c r="S22">
-        <v>0.714981406056313</v>
-      </c>
-      <c r="T22">
-        <v>0.5</v>
-      </c>
-      <c r="U22" s="1">
-        <v>6708.5918098825696</v>
-      </c>
-      <c r="V22">
-        <v>79</v>
-      </c>
-      <c r="W22" s="28">
-        <v>0.50649965363959382</v>
-      </c>
-      <c r="X22">
-        <v>0.5</v>
-      </c>
-      <c r="Y22">
-        <v>0.5</v>
-      </c>
-      <c r="Z22">
-        <v>0.5</v>
-      </c>
-      <c r="AA22">
-        <v>0.5</v>
-      </c>
-      <c r="AB22">
-        <v>0.5</v>
-      </c>
-      <c r="AC22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.78461539745330811</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.10769230872392654</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.10769230872392654</v>
-      </c>
-      <c r="G23">
-        <v>638652.78916675621</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2.7249470000000001E-2</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0.17121295630931854</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="0"/>
-        <v>109345.63208843226</v>
-      </c>
-      <c r="K23">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="8">
-        <v>3.0976666903370642E-2</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5.9031372657045722E-3</v>
-      </c>
-      <c r="N23">
-        <v>0.65481972458716653</v>
-      </c>
-      <c r="O23" s="28">
-        <v>0.65252756379186394</v>
-      </c>
-      <c r="P23" s="8">
-        <v>3.0976666903370642E-2</v>
-      </c>
-      <c r="Q23">
-        <v>10000</v>
-      </c>
-      <c r="R23" s="7">
-        <v>5.9031372657045722E-3</v>
-      </c>
-      <c r="S23">
-        <v>0.65481972458716653</v>
-      </c>
-      <c r="T23">
-        <v>0.5</v>
-      </c>
-      <c r="U23" s="1">
-        <v>8710.2265835793805</v>
-      </c>
-      <c r="V23">
-        <v>79</v>
-      </c>
-      <c r="W23" s="28">
-        <v>0.65252756379186394</v>
-      </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
-      <c r="Y23">
-        <v>0.5</v>
-      </c>
-      <c r="Z23">
-        <v>0.5</v>
-      </c>
-      <c r="AA23">
-        <v>0.5</v>
-      </c>
-      <c r="AB23">
-        <v>0.5</v>
-      </c>
-      <c r="AC23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24">
-        <v>2024</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.81904762983322144</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8.5714288055896759E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>9.5238097012042999E-2</v>
-      </c>
-      <c r="G24">
-        <v>787781.01107808691</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1.914969E-2</v>
-      </c>
-      <c r="I24" s="5">
-        <v>3.2490484416484833E-2</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="0"/>
-        <v>25595.38666403525</v>
-      </c>
-      <c r="K24">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1.8084977609987618E-2</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5.8476519770920277E-3</v>
-      </c>
-      <c r="N24">
-        <v>0.714981406056313</v>
-      </c>
-      <c r="O24" s="28">
-        <v>0.57470239283622959</v>
-      </c>
-      <c r="P24" s="8">
-        <v>1.8084977609987618E-2</v>
-      </c>
-      <c r="Q24">
-        <v>10000</v>
-      </c>
-      <c r="R24" s="7">
-        <v>5.8476519770920277E-3</v>
-      </c>
-      <c r="S24">
-        <v>0.714981406056313</v>
-      </c>
-      <c r="T24">
-        <v>0.5</v>
-      </c>
-      <c r="U24" s="1">
-        <v>7873.0654922742797</v>
-      </c>
-      <c r="V24">
-        <v>79</v>
-      </c>
-      <c r="W24" s="28">
-        <v>0.57470239283622959</v>
-      </c>
-      <c r="X24">
-        <v>0.5</v>
-      </c>
-      <c r="Y24">
-        <v>0.5</v>
-      </c>
-      <c r="Z24">
-        <v>0.5</v>
-      </c>
-      <c r="AA24">
-        <v>0.5</v>
-      </c>
-      <c r="AB24">
-        <v>0.5</v>
-      </c>
-      <c r="AC24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25">
-        <v>2024</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.82795697450637817</v>
-      </c>
-      <c r="E25" s="1">
-        <v>6.4516127109527588E-2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.10752688348293304</v>
-      </c>
-      <c r="G25">
-        <v>534281.76249755372</v>
-      </c>
-      <c r="H25" s="2">
-        <v>3.7138829999999998E-2</v>
-      </c>
-      <c r="I25" s="5">
-        <v>7.283329963684082E-2</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="0"/>
-        <v>38913.50369848375</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="8">
-        <v>3.5583561451403511E-2</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5.9482122305780649E-3</v>
-      </c>
-      <c r="N25">
-        <v>0.65481972458716653</v>
-      </c>
-      <c r="O25" s="28">
-        <v>0.75280468968730929</v>
-      </c>
-      <c r="P25" s="8">
-        <v>3.5583561451403511E-2</v>
-      </c>
-      <c r="Q25">
-        <v>10000</v>
-      </c>
-      <c r="R25" s="7">
-        <v>5.9482122305780649E-3</v>
-      </c>
-      <c r="S25">
-        <v>0.65481972458716653</v>
-      </c>
-      <c r="T25">
-        <v>0.5</v>
-      </c>
-      <c r="U25" s="1">
-        <v>10292.1150553646</v>
-      </c>
-      <c r="V25">
-        <v>79</v>
-      </c>
-      <c r="W25" s="28">
-        <v>0.75280468968730929</v>
-      </c>
-      <c r="X25">
-        <v>0.5</v>
-      </c>
-      <c r="Y25">
-        <v>0.5</v>
-      </c>
-      <c r="Z25">
-        <v>0.5</v>
-      </c>
-      <c r="AA25">
-        <v>0.5</v>
-      </c>
-      <c r="AB25">
-        <v>0.5</v>
-      </c>
-      <c r="AC25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26">
-        <v>2024</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.7816091775894165</v>
-      </c>
-      <c r="E26" s="1">
-        <v>9.1954022645950317E-2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.12643678486347198</v>
-      </c>
-      <c r="G26">
-        <v>719284.10659203865</v>
-      </c>
-      <c r="H26" s="2">
-        <v>3.085947E-2</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1.4018112793564796E-2</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="0"/>
-        <v>10083.005736825682</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1.7682773554497544E-2</v>
-      </c>
-      <c r="M26" s="7">
-        <v>7.3891112115234137E-3</v>
-      </c>
-      <c r="N26">
-        <v>0.85686544218787919</v>
-      </c>
-      <c r="O26" s="28">
-        <v>0.69358514642544833</v>
-      </c>
-      <c r="P26" s="8">
-        <v>1.7682773554497544E-2</v>
-      </c>
-      <c r="Q26">
-        <v>10000</v>
-      </c>
-      <c r="R26" s="7">
-        <v>7.3891112115234137E-3</v>
-      </c>
-      <c r="S26">
-        <v>0.85686544218787919</v>
-      </c>
-      <c r="T26">
-        <v>0.5</v>
-      </c>
-      <c r="U26" s="1">
-        <v>9049.0925595055105</v>
-      </c>
-      <c r="V26">
-        <v>79</v>
-      </c>
-      <c r="W26" s="28">
-        <v>0.69358514642544833</v>
-      </c>
-      <c r="X26">
-        <v>0.5</v>
-      </c>
-      <c r="Y26">
-        <v>0.5</v>
-      </c>
-      <c r="Z26">
-        <v>0.5</v>
-      </c>
-      <c r="AA26">
-        <v>0.5</v>
-      </c>
-      <c r="AB26">
-        <v>0.5</v>
-      </c>
-      <c r="AC26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.79032260179519653</v>
-      </c>
-      <c r="E27" s="1">
-        <v>9.6774190664291382E-2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.11290322244167328</v>
-      </c>
-      <c r="G27">
-        <v>424126.92288729502</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5.3876819999999999E-2</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3.7903346121311188E-2</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="0"/>
-        <v>16075.829557563802</v>
-      </c>
-      <c r="K27">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="8">
-        <v>3.8642153014734504E-2</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6.7930074874311686E-3</v>
-      </c>
-      <c r="N27">
-        <v>0.77044250322211094</v>
-      </c>
-      <c r="O27" s="28">
-        <v>0.90916031577125977</v>
-      </c>
-      <c r="P27" s="8">
-        <v>3.8642153014734504E-2</v>
-      </c>
-      <c r="Q27">
-        <v>10000</v>
-      </c>
-      <c r="R27" s="7">
-        <v>6.7930074874311686E-3</v>
-      </c>
-      <c r="S27">
-        <v>0.77044250322211094</v>
-      </c>
-      <c r="T27">
-        <v>0.5</v>
-      </c>
-      <c r="U27" s="1">
-        <v>11593.3910936179</v>
-      </c>
-      <c r="V27">
-        <v>79</v>
-      </c>
-      <c r="W27" s="28">
-        <v>0.90916031577125977</v>
-      </c>
-      <c r="X27">
-        <v>0.5</v>
-      </c>
-      <c r="Y27">
-        <v>0.5</v>
-      </c>
-      <c r="Z27">
-        <v>0.5</v>
-      </c>
-      <c r="AA27">
-        <v>0.5</v>
-      </c>
-      <c r="AB27">
-        <v>0.5</v>
-      </c>
-      <c r="AC27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28">
-        <v>2024</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.8888888955116272</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.1111111119389534</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>983115.65548705647</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.14248351000000001</v>
-      </c>
-      <c r="I28" s="5">
-        <v>4.5846062712371349E-3</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="0"/>
-        <v>4507.1981994973657</v>
-      </c>
-      <c r="K28">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0.16558913736841294</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7.7970464277322083E-3</v>
-      </c>
-      <c r="N28">
-        <v>0.85686544218787919</v>
-      </c>
-      <c r="O28" s="28">
-        <v>0.44025889901854803</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0.16558913736841294</v>
-      </c>
-      <c r="Q28">
-        <v>10000</v>
-      </c>
-      <c r="R28" s="7">
-        <v>7.7970464277322083E-3</v>
-      </c>
-      <c r="S28">
-        <v>0.85686544218787919</v>
-      </c>
-      <c r="T28">
-        <v>0.5</v>
-      </c>
-      <c r="U28" s="1">
-        <v>17969.037119033957</v>
-      </c>
-      <c r="V28">
-        <v>79</v>
-      </c>
-      <c r="W28" s="28">
-        <v>0.44025889901854803</v>
-      </c>
-      <c r="X28">
-        <v>0.5</v>
-      </c>
-      <c r="Y28">
-        <v>0.5</v>
-      </c>
-      <c r="Z28">
-        <v>0.5</v>
-      </c>
-      <c r="AA28">
-        <v>0.5</v>
-      </c>
-      <c r="AB28">
-        <v>0.5</v>
-      </c>
-      <c r="AC28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29">
-        <v>2024</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.71428573131561279</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.28571429848670959</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>423655.44720715767</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.16703204000000002</v>
-      </c>
-      <c r="I29" s="5">
-        <v>2.6178202591836452E-2</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="0"/>
-        <v>11090.538126124047</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0.2059349065789314</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7.4583895782668226E-3</v>
-      </c>
-      <c r="N29">
-        <v>0.77044250322211094</v>
-      </c>
-      <c r="O29" s="28">
-        <v>0.65528288627754439</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0.2059349065789314</v>
-      </c>
-      <c r="Q29">
-        <v>10000</v>
-      </c>
-      <c r="R29" s="7">
-        <v>7.4583895782668226E-3</v>
-      </c>
-      <c r="S29">
-        <v>0.77044250322211094</v>
-      </c>
-      <c r="T29">
-        <v>0.5</v>
-      </c>
-      <c r="U29" s="1">
-        <v>21518.665085318702</v>
-      </c>
-      <c r="V29">
-        <v>79</v>
-      </c>
-      <c r="W29" s="28">
-        <v>0.65528288627754439</v>
-      </c>
-      <c r="X29">
-        <v>0.5</v>
-      </c>
-      <c r="Y29">
-        <v>0.5</v>
-      </c>
-      <c r="Z29">
-        <v>0.5</v>
-      </c>
-      <c r="AA29">
-        <v>0.5</v>
-      </c>
-      <c r="AB29">
-        <v>0.5</v>
-      </c>
-      <c r="AC29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="32"/>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O33" r:id="rId1" location=":~:text=Z%20najnowszego%20opracowania%20Narodowego%20Funduszu,grupie%20wiekowej%2075%2D84%20lata." xr:uid="{8CF05C63-8CD2-4FEA-8734-9C3C0707AE70}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="523" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D45CCF-A5F0-40B6-B8E7-D54ABB972B84}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15720" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15720" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="4" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D789C2-E50C-427B-BE0F-0552EE19EF4B}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2611,7 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0661E1-D292-4694-8368-9DC31B72B949}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fnibs-my.sharepoint.com/personal/iga_magda_ibs_org_pl/Documents/IBS/projekty/Benefit systems/BENEFIT PROJEKT/analiza/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155D5AFD-30CA-470B-A761-6A1570DB0ED4}"/>
+  <xr:revisionPtr revIDLastSave="786" documentId="14_{815BE33D-9411-4439-8E9D-B627326FA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6446EB22-BA5B-479F-9F7C-7E85A03594EB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15720" tabRatio="929" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="237">
   <si>
     <t>M</t>
   </si>
@@ -757,7 +757,13 @@
     <t>breast</t>
   </si>
   <si>
-    <t>totals</t>
+    <t>variable_type</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>per_capita</t>
   </si>
 </sst>
 </file>
@@ -1740,27 +1746,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D789C2-E50C-427B-BE0F-0552EE19EF4B}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1768,936 +1774,981 @@
         <v>157</v>
       </c>
       <c r="C1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2">
         <v>1.038</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1.052</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3">
         <v>0.79</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0.79</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4">
         <v>0.71</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0.71</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5">
         <v>0.67999999999999994</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0.67999999999999994</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>10</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>15</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>148</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6">
         <v>0.67999999999999994</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.96</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.67999999999999994</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.96</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>10</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>15</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>16</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7">
         <v>0.995</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0.995</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>10</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="31" t="s">
         <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>149</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8">
         <v>0.79</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.98</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.7</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>7</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>8</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>15</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>16</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>150</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9">
         <v>0.77</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.94</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.77</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.94</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>5</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>8</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>10</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>145</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10">
         <v>0.92999999999999994</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.98</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.92999999999999994</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.98</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>7</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>8</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>9</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>14</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>15</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>16</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B11" t="s">
         <v>151</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11">
         <v>0.89</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.94</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.89</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.94</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>4</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>5</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>7</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>9</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>14</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>15</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>16</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B12" t="s">
         <v>152</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>236</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>0.79</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.94</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>5</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>6</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>7</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>8</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>9</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>14</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>15</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>16</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>153</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>236</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>0.86</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.92</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>5</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>6</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>8</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>14</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>15</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>16</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>154</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14">
         <v>0.78</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.78</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>3</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>4</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>5</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>7</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>8</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>9</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>14</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>15</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>16</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15">
         <v>0.81</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>0.81</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>4</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>5</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>6</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>7</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>8</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>9</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>14</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>15</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>16</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="5:12">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="5:12">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="5:12">
-      <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="5:12">
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="5:12">
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="5:12">
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="5:12">
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="5:12">
-      <c r="G25" s="3"/>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="5:12">
-      <c r="G26" s="4"/>
-      <c r="L26" s="32"/>
-    </row>
-    <row r="27" spans="5:12">
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="5:12">
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="5:12">
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="5:12">
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="5:12">
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="5:12">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="3"/>
+    <row r="18" spans="6:13">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="6:13">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="6:13">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="6:13">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="6:13">
+      <c r="H25" s="3"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="6:13">
+      <c r="H26" s="4"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="6:13">
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="6:13">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="6:13">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="6:13">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="6:13">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="6:13">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -11849,8 +11900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0661E1-D292-4694-8368-9DC31B72B949}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13979,57 +14030,8 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="J32" t="s">
-        <v>234</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ref="K32:U32" si="1">SUMPRODUCT(K2:K29,$G$2:$G$29)</f>
-        <v>7590472.961132939</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>158599.46123795255</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>2534650.4271676647</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>9156976.1527027301</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>10395037.865993207</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" si="1"/>
-        <v>149610675520.66125</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
-        <v>74617.325212177559</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="1"/>
-        <v>16377.341713239011</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="1"/>
-        <v>20256.321072383216</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="1"/>
-        <v>5577.8969377840012</v>
-      </c>
-      <c r="V32" s="6">
-        <f>SUMPRODUCT(V2:V29,$G$2:$G$29)</f>
-        <v>786439.34520084108</v>
-      </c>
-      <c r="W32">
-        <f>SUMPRODUCT(W2:W29,$G$2:$G$29)</f>
-        <v>16398044.894695647</v>
-      </c>
+      <c r="P32" s="6"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" s="3"/>
